--- a/files/LISTA DE PRECIOS MARKET.xlsx
+++ b/files/LISTA DE PRECIOS MARKET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Desktop\BuscadorPorMedidaJS\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matia\BuscadorPorMedida\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C5668B-35AC-4228-8B65-D95558E9C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EA12E-657D-4462-B60E-EBC05FDC02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2018,9 +2018,6 @@
     <t>X2</t>
   </si>
   <si>
-    <t>X 4</t>
-  </si>
-  <si>
     <t>1557013ROADH11</t>
   </si>
   <si>
@@ -2091,6 +2088,9 @@
   </si>
   <si>
     <t>LT AT</t>
+  </si>
+  <si>
+    <t>X4</t>
   </si>
 </sst>
 </file>
@@ -2208,16 +2208,2004 @@
   </cellStyles>
   <dxfs count="208">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2336,2004 +4324,16 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4349,16 +4349,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:G312" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:G312" totalsRowShown="0" headerRowDxfId="207" tableBorderDxfId="206">
   <autoFilter ref="A1:G312" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EA449B72-83DE-46B5-B319-FA996C850BC5}" name="SKU"/>
-    <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B2478357-CBDB-4907-BE09-EF9288EA5754}" name="MARCA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EA9BFBC1-3E5F-4162-823E-C560CE9B7B11}" name="MODELO" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EF939F09-D156-4046-BABE-06D6CBB9A833}" name="UNIDAD" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{48B81004-6841-4974-8E3F-19C72FAEA1B2}" name="X2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{E8025809-8770-4BD7-9F43-11BC7AFFA9B2}" name="X 4" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="205"/>
+    <tableColumn id="3" xr3:uid="{B2478357-CBDB-4907-BE09-EF9288EA5754}" name="MARCA" dataDxfId="204"/>
+    <tableColumn id="4" xr3:uid="{EA9BFBC1-3E5F-4162-823E-C560CE9B7B11}" name="MODELO" dataDxfId="203"/>
+    <tableColumn id="5" xr3:uid="{EF939F09-D156-4046-BABE-06D6CBB9A833}" name="UNIDAD" dataDxfId="202"/>
+    <tableColumn id="6" xr3:uid="{48B81004-6841-4974-8E3F-19C72FAEA1B2}" name="X2" dataDxfId="201"/>
+    <tableColumn id="7" xr3:uid="{E8025809-8770-4BD7-9F43-11BC7AFFA9B2}" name="X4" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4684,21 +4684,21 @@
   <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.296875" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -4718,10 +4718,10 @@
         <v>659</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4740,7 +4740,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -4908,9 +4908,9 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -4931,7 +4931,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -4954,9 +4954,9 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -4975,7 +4975,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -5038,9 +5038,9 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
@@ -5059,7 +5059,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -5118,7 +5118,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
@@ -5373,9 +5373,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>88</v>
@@ -5392,7 +5392,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>93</v>
       </c>
@@ -5432,9 +5432,9 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>95</v>
@@ -5453,7 +5453,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>122</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>128</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>129</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>146</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>153</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>155</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>159</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>162</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>164</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>166</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>168</v>
       </c>
@@ -6090,9 +6090,9 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>169</v>
@@ -6111,7 +6111,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>170</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>172</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>173</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>175</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>176</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>178</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>180</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>184</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>193</v>
       </c>
@@ -6378,9 +6378,9 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>190</v>
@@ -6397,7 +6397,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>195</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>196</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>198</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>202</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>213</v>
       </c>
@@ -6563,9 +6563,9 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>215</v>
@@ -6584,7 +6584,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>218</v>
       </c>
@@ -6605,15 +6605,15 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="3">
@@ -6624,7 +6624,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>223</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>226</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>228</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>230</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>232</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>236</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>239</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>242</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="10"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>244</v>
       </c>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>247</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>250</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>254</v>
       </c>
@@ -6939,9 +6939,9 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>256</v>
@@ -6960,9 +6960,9 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>256</v>
@@ -6983,7 +6983,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>259</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>261</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>265</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>267</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>268</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>270</v>
       </c>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>272</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>274</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>278</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>279</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>280</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>282</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>286</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>288</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>289</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>291</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>293</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>295</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>297</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>299</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>300</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>302</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>305</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>310</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>313</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>315</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>318</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>319</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>322</v>
       </c>
@@ -7643,9 +7643,9 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>324</v>
@@ -7664,7 +7664,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>325</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>328</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>329</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>331</v>
       </c>
@@ -7748,9 +7748,9 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>332</v>
@@ -7769,7 +7769,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>334</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>336</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>338</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>340</v>
       </c>
@@ -7855,9 +7855,9 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>341</v>
@@ -7876,7 +7876,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>342</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>345</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>346</v>
       </c>
@@ -7937,12 +7937,12 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -7958,7 +7958,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>350</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>352</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>354</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>357</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>358</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>361</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>364</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>367</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>368</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>373</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>375</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>378</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>381</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>383</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>385</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>387</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>390</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>392</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>394</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>397</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>398</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>400</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>402</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>404</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="10"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>410</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>411</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>413</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>415</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>417</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>419</v>
       </c>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="G189" s="10"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>421</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>424</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>425</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>427</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>430</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>432</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>434</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>436</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>439</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>441</v>
       </c>
@@ -8813,12 +8813,12 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>80</v>
@@ -8834,7 +8834,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>443</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>445</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>446</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>448</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>450</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>451</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>453</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>456</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>458</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>460</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>462</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>466</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>468</v>
       </c>
@@ -9103,12 +9103,12 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
@@ -9126,7 +9126,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>470</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>472</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>474</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>476</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>478</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>479</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>481</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>483</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>485</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>487</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>489</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>491</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>492</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>493</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>494</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>496</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>498</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>499</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>500</v>
       </c>
@@ -9511,7 +9511,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>502</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>504</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>505</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>507</v>
       </c>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>509</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>511</v>
       </c>
@@ -9631,12 +9631,12 @@
       <c r="F239" s="3"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -9654,7 +9654,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>513</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>515</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>517</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>519</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>521</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>523</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>525</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>527</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>529</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>532</v>
       </c>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>535</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>536</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>537</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>538</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>541</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>542</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>546</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="9"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>548</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>549</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>550</v>
       </c>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="G260" s="10"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>551</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>549</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>39</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E262" s="3">
         <v>125000</v>
@@ -10110,7 +10110,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>553</v>
       </c>
@@ -10129,7 +10129,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="10"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>555</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>556</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>558</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>559</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>561</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>563</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="10"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>565</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>568</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>569</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>572</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>574</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>576</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>577</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>579</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>581</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>582</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>584</v>
       </c>
@@ -10472,7 +10472,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="10"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>585</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="10"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>587</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>590</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>591</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>593</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>594</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>596</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>598</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>599</v>
       </c>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="G289" s="9"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>601</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>603</v>
       </c>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="G291" s="9"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>605</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>606</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>608</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>609</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>611</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>613</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>615</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>617</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>619</v>
       </c>
@@ -10882,7 +10882,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="10"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>622</v>
       </c>
@@ -10901,7 +10901,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="10"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>626</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="9"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>628</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>630</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>632</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>635</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>638</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>641</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>644</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>645</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>648</v>
       </c>
@@ -11111,7 +11111,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="9"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>652</v>
       </c>
@@ -11134,608 +11134,609 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="207" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="206" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="205" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="204" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="duplicateValues" dxfId="203" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="202" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="201" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="200" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="199" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="198" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="197" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="196" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="195" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="194" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="193" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="192" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="191" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="190" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="189" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="188" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A29">
-    <cfRule type="duplicateValues" dxfId="187" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="186" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="185" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="184" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="183" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="duplicateValues" dxfId="182" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="181" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="180" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="179" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="178" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="177" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="176" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="175" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="174" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="173" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="172" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="171" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="170" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="169" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="168" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="167" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="166" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="165" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="164" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="163" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="162" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="161" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="160" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="159" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="158" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="157" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="156" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="155" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:A69">
-    <cfRule type="duplicateValues" dxfId="154" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="153" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="152" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="151" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="150" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="149" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="148" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="147" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="146" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="145" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="144" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="143" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="142" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="141" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="140" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="139" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="138" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="137" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="136" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="135" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="134" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="133" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="132" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:A111">
-    <cfRule type="duplicateValues" dxfId="131" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="130" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="129" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="128" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="127" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="126" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="125" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="124" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="123" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="122" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="121" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="120" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="119" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="118" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="117" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="116" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="115" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" dxfId="114" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="113" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="112" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="111" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="duplicateValues" dxfId="110" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="duplicateValues" dxfId="109" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="108" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="duplicateValues" dxfId="107" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="duplicateValues" dxfId="106" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148:A149">
-    <cfRule type="duplicateValues" dxfId="105" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="104" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="103" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153:A154">
-    <cfRule type="duplicateValues" dxfId="102" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155">
-    <cfRule type="duplicateValues" dxfId="101" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:A158">
-    <cfRule type="duplicateValues" dxfId="100" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159">
-    <cfRule type="duplicateValues" dxfId="99" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160">
-    <cfRule type="duplicateValues" dxfId="98" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="97" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="96" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="duplicateValues" dxfId="95" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" dxfId="94" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="93" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171">
-    <cfRule type="duplicateValues" dxfId="92" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="91" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="duplicateValues" dxfId="90" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="89" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176">
-    <cfRule type="duplicateValues" dxfId="88" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177">
-    <cfRule type="duplicateValues" dxfId="87" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="duplicateValues" dxfId="86" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="duplicateValues" dxfId="85" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A181">
-    <cfRule type="duplicateValues" dxfId="84" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="83" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185">
-    <cfRule type="duplicateValues" dxfId="82" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186">
-    <cfRule type="duplicateValues" dxfId="81" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="80" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="79" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193">
-    <cfRule type="duplicateValues" dxfId="78" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194:A196">
-    <cfRule type="duplicateValues" dxfId="77" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="duplicateValues" dxfId="76" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199">
-    <cfRule type="duplicateValues" dxfId="75" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="duplicateValues" dxfId="74" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="duplicateValues" dxfId="72" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="duplicateValues" dxfId="71" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="duplicateValues" dxfId="70" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="duplicateValues" dxfId="69" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213:A214">
-    <cfRule type="duplicateValues" dxfId="68" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="67" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" dxfId="66" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" dxfId="65" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" dxfId="64" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="duplicateValues" dxfId="62" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="duplicateValues" dxfId="61" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="duplicateValues" dxfId="60" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A230">
-    <cfRule type="duplicateValues" dxfId="59" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A232">
-    <cfRule type="duplicateValues" dxfId="57" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235">
-    <cfRule type="duplicateValues" dxfId="55" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A236">
-    <cfRule type="duplicateValues" dxfId="54" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:A240">
-    <cfRule type="duplicateValues" dxfId="53" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="52" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="duplicateValues" dxfId="51" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="duplicateValues" dxfId="50" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245">
-    <cfRule type="duplicateValues" dxfId="48" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="47" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="duplicateValues" dxfId="46" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253">
-    <cfRule type="duplicateValues" dxfId="44" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A254">
-    <cfRule type="duplicateValues" dxfId="43" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255">
-    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257">
-    <cfRule type="duplicateValues" dxfId="41" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258">
-    <cfRule type="duplicateValues" dxfId="40" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:A262">
-    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265:A266">
-    <cfRule type="duplicateValues" dxfId="37" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="36" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="35" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="33" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="32" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="31" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="30" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="29" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277">
-    <cfRule type="duplicateValues" dxfId="28" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A278">
-    <cfRule type="duplicateValues" dxfId="27" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="26" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A283">
-    <cfRule type="duplicateValues" dxfId="24" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284">
-    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A285">
-    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="21" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="20" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293">
-    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A294">
-    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295">
-    <cfRule type="duplicateValues" dxfId="16" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A296">
-    <cfRule type="duplicateValues" dxfId="15" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A297">
-    <cfRule type="duplicateValues" dxfId="14" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A298">
-    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="duplicateValues" dxfId="12" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="duplicateValues" dxfId="11" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="duplicateValues" dxfId="9" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303:A304">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/LISTA DE PRECIOS MARKET.xlsx
+++ b/files/LISTA DE PRECIOS MARKET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matia\BuscadorPorMedida\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EA12E-657D-4462-B60E-EBC05FDC02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B065B8-A9AF-4D13-8DA3-3757AC88618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
+    <workbookView xWindow="3930" yWindow="1770" windowWidth="21555" windowHeight="11835" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="688">
   <si>
     <t>1457012ROADT01</t>
   </si>
@@ -50,18 +50,9 @@
     <t>TAXI-T01T</t>
   </si>
   <si>
-    <t>1457013LING</t>
-  </si>
-  <si>
-    <t>145/70R13</t>
-  </si>
-  <si>
     <t>LINGLONG</t>
   </si>
   <si>
-    <t>R701</t>
-  </si>
-  <si>
     <t>14513BW</t>
   </si>
   <si>
@@ -224,18 +215,12 @@
     <t>ZT101</t>
   </si>
   <si>
-    <t>16514GRENLPO</t>
-  </si>
-  <si>
     <t>165R14C</t>
   </si>
   <si>
     <t>GREENLANDER</t>
   </si>
   <si>
-    <t>LPOWER 28</t>
-  </si>
-  <si>
     <t>16514HAID517</t>
   </si>
   <si>
@@ -356,18 +341,9 @@
     <t>175R14C</t>
   </si>
   <si>
-    <t>1854515WINDF</t>
-  </si>
-  <si>
     <t>185/45R15</t>
   </si>
   <si>
-    <t>WINDOFRCE</t>
-  </si>
-  <si>
-    <t>CATCHFORS HP</t>
-  </si>
-  <si>
     <t>1855514APT203</t>
   </si>
   <si>
@@ -395,9 +371,6 @@
     <t>COLO H01</t>
   </si>
   <si>
-    <t>1856014GRENCOLO</t>
-  </si>
-  <si>
     <t>185/60R14</t>
   </si>
   <si>
@@ -413,9 +386,6 @@
     <t>Q7</t>
   </si>
   <si>
-    <t>1856015MIRAMR16</t>
-  </si>
-  <si>
     <t>1856514GRENCOLO</t>
   </si>
   <si>
@@ -425,9 +395,6 @@
     <t>1856514ROADH11</t>
   </si>
   <si>
-    <t>1856515BEARBW36</t>
-  </si>
-  <si>
     <t>185/65R15</t>
   </si>
   <si>
@@ -440,9 +407,6 @@
     <t>1856515ROADH1292</t>
   </si>
   <si>
-    <t>1856515APOLLO</t>
-  </si>
-  <si>
     <t>APOLLO</t>
   </si>
   <si>
@@ -461,15 +425,9 @@
     <t>DK768</t>
   </si>
   <si>
-    <t>1857013MIRAMR16</t>
-  </si>
-  <si>
     <t>185/70R13</t>
   </si>
   <si>
-    <t>1857014ROTARONE</t>
-  </si>
-  <si>
     <t>185/70R14</t>
   </si>
   <si>
@@ -626,12 +584,6 @@
     <t>1956515ROADH12V</t>
   </si>
   <si>
-    <t>1956515PIRELLI</t>
-  </si>
-  <si>
-    <t>P1 PLUS</t>
-  </si>
-  <si>
     <t>1956516CTOYO</t>
   </si>
   <si>
@@ -659,18 +611,12 @@
     <t>CF350</t>
   </si>
   <si>
-    <t>1957516CPIRELLI</t>
-  </si>
-  <si>
     <t>195/75R16C</t>
   </si>
   <si>
     <t>CHRONO</t>
   </si>
   <si>
-    <t>1957516CCONTINEN</t>
-  </si>
-  <si>
     <t>CONTINENTAL</t>
   </si>
   <si>
@@ -692,9 +638,6 @@
     <t>AT20</t>
   </si>
   <si>
-    <t>19514KINGG326</t>
-  </si>
-  <si>
     <t>195R14C</t>
   </si>
   <si>
@@ -872,9 +815,6 @@
     <t>MT</t>
   </si>
   <si>
-    <t>2057015APT203</t>
-  </si>
-  <si>
     <t>2057015SUMAAIN</t>
   </si>
   <si>
@@ -1094,12 +1034,6 @@
     <t>RAPTOR R09 AT</t>
   </si>
   <si>
-    <t>2157016RYDARALE</t>
-  </si>
-  <si>
-    <t>RALEIGH R06 HT</t>
-  </si>
-  <si>
     <t>2157016ROADT01</t>
   </si>
   <si>
@@ -1277,9 +1211,6 @@
     <t>225/50RZR17</t>
   </si>
   <si>
-    <t>2255517APTA301</t>
-  </si>
-  <si>
     <t>225/55R17</t>
   </si>
   <si>
@@ -1295,12 +1226,6 @@
     <t>CINTURATO P7</t>
   </si>
   <si>
-    <t>2255517HANK</t>
-  </si>
-  <si>
-    <t>K415</t>
-  </si>
-  <si>
     <t>2255518ROADU01</t>
   </si>
   <si>
@@ -1376,9 +1301,6 @@
     <t>2256517ROADT01</t>
   </si>
   <si>
-    <t>2256517KMHP71</t>
-  </si>
-  <si>
     <t>CRUGEN HP71</t>
   </si>
   <si>
@@ -1391,9 +1313,6 @@
     <t>2256517HANKHP2</t>
   </si>
   <si>
-    <t>2257015MR300M</t>
-  </si>
-  <si>
     <t>225/70R15C</t>
   </si>
   <si>
@@ -1436,12 +1355,6 @@
     <t>SL369</t>
   </si>
   <si>
-    <t>2257516GRELMAX9</t>
-  </si>
-  <si>
-    <t>225/75R16C</t>
-  </si>
-  <si>
     <t>2354018ROADU11</t>
   </si>
   <si>
@@ -1517,9 +1430,6 @@
     <t>2356018HKHP2</t>
   </si>
   <si>
-    <t>2356018HKGT</t>
-  </si>
-  <si>
     <t>2356516COMF350</t>
   </si>
   <si>
@@ -1565,12 +1475,6 @@
     <t>SCORPION ATR</t>
   </si>
   <si>
-    <t>23575175CENT703S</t>
-  </si>
-  <si>
-    <t>235/75R17.5</t>
-  </si>
-  <si>
     <t>2453518ROADU11RF</t>
   </si>
   <si>
@@ -1595,12 +1499,6 @@
     <t>245/40ZRF19</t>
   </si>
   <si>
-    <t>2454020ROADU11</t>
-  </si>
-  <si>
-    <t>245/40R20</t>
-  </si>
-  <si>
     <t>2454518ROADU11</t>
   </si>
   <si>
@@ -1832,9 +1730,6 @@
     <t>265/75R16</t>
   </si>
   <si>
-    <t>2657516HKAT2</t>
-  </si>
-  <si>
     <t>2785014STMT</t>
   </si>
   <si>
@@ -1904,18 +1799,9 @@
     <t>RAPTOR R09</t>
   </si>
   <si>
-    <t>2954020GREETX</t>
-  </si>
-  <si>
     <t>295/40R20</t>
   </si>
   <si>
-    <t>GREENTRAC</t>
-  </si>
-  <si>
-    <t>QUEST X</t>
-  </si>
-  <si>
     <t>3153520ROADU11</t>
   </si>
   <si>
@@ -1943,12 +1829,6 @@
     <t>DIAMAX</t>
   </si>
   <si>
-    <t>50012LONG801</t>
-  </si>
-  <si>
-    <t>500R12C</t>
-  </si>
-  <si>
     <t>ZT801</t>
   </si>
   <si>
@@ -2033,15 +1913,9 @@
     <t>1757014MIRAMR16</t>
   </si>
   <si>
-    <t>1955515GRENCOLO</t>
-  </si>
-  <si>
     <t>1956515MIRAMR16</t>
   </si>
   <si>
-    <t>1958015DAT20</t>
-  </si>
-  <si>
     <t>19515BLACV62</t>
   </si>
   <si>
@@ -2091,6 +1965,141 @@
   </si>
   <si>
     <t>X4</t>
+  </si>
+  <si>
+    <t>MILEKING</t>
+  </si>
+  <si>
+    <t>16514QUESTC31R</t>
+  </si>
+  <si>
+    <t>1854515OTIONU11R</t>
+  </si>
+  <si>
+    <t>1856014APT</t>
+  </si>
+  <si>
+    <t>1857013OTIONH11R</t>
+  </si>
+  <si>
+    <t>1857014ROADH11</t>
+  </si>
+  <si>
+    <t>1955510WR301W</t>
+  </si>
+  <si>
+    <t>195/55R10</t>
+  </si>
+  <si>
+    <t>WANDA</t>
+  </si>
+  <si>
+    <t>WR301</t>
+  </si>
+  <si>
+    <t>1955515AGLEL600L</t>
+  </si>
+  <si>
+    <t>LENSTONE</t>
+  </si>
+  <si>
+    <t>195015DAT20</t>
+  </si>
+  <si>
+    <t>19514MIRAMR300</t>
+  </si>
+  <si>
+    <t>2056515ROADH12</t>
+  </si>
+  <si>
+    <t>SOLO 3</t>
+  </si>
+  <si>
+    <t>2255015RRAINTAS</t>
+  </si>
+  <si>
+    <t>225/50R15</t>
+  </si>
+  <si>
+    <t>2255517ROADU11</t>
+  </si>
+  <si>
+    <t>2256517GOODY</t>
+  </si>
+  <si>
+    <t>2256517SUMAAT</t>
+  </si>
+  <si>
+    <t>2257015BRIG188</t>
+  </si>
+  <si>
+    <t>BRGHTWAY</t>
+  </si>
+  <si>
+    <t>LRP 188</t>
+  </si>
+  <si>
+    <t>2257516MR300M</t>
+  </si>
+  <si>
+    <t>2257516UESTAT21R</t>
+  </si>
+  <si>
+    <t>2353519ROADU11</t>
+  </si>
+  <si>
+    <t>235/35R19</t>
+  </si>
+  <si>
+    <t>2355018ROADU01</t>
+  </si>
+  <si>
+    <t>235/50R18</t>
+  </si>
+  <si>
+    <t>2355517ROADU01</t>
+  </si>
+  <si>
+    <t>235/55R17</t>
+  </si>
+  <si>
+    <t>2357016ROADRXQU</t>
+  </si>
+  <si>
+    <t>245401ROADRFT</t>
+  </si>
+  <si>
+    <t>245/40R18</t>
+  </si>
+  <si>
+    <t>2455020ROADT02</t>
+  </si>
+  <si>
+    <t>245/50R20</t>
+  </si>
+  <si>
+    <t>2557017BRAT</t>
+  </si>
+  <si>
+    <t>255/70R17</t>
+  </si>
+  <si>
+    <t>2654521ROADU01</t>
+  </si>
+  <si>
+    <t>265/45R21</t>
+  </si>
+  <si>
+    <t>2954020SAFYM06M</t>
+  </si>
+  <si>
+    <t>MINNEL</t>
+  </si>
+  <si>
+    <t>75016BLACBA81</t>
+  </si>
+  <si>
+    <t>CUBRE Y CAMARA</t>
   </si>
 </sst>
 </file>
@@ -4683,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD7E8A9-DA65-5E44-83F0-9CA8370198F0}">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4700,25 +4709,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4742,31 +4751,31 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="10">
-        <v>150000</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -4774,12 +4783,12 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
-        <v>40000</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>100000</v>
+      </c>
       <c r="G4" s="10">
-        <v>155000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,100 +4796,100 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>33000</v>
+      </c>
       <c r="F5" s="3">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="G5" s="10">
-        <v>200000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
-        <v>33000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>65000</v>
-      </c>
-      <c r="G6" s="10">
-        <v>125000</v>
-      </c>
+        <v>35000</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10">
+        <v>140000</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="10">
-        <v>140000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="10">
@@ -4889,37 +4898,39 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>620</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="3">
-        <v>33000</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>37000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>72000</v>
+      </c>
       <c r="G10" s="10">
-        <v>125000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>660</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>37000</v>
@@ -4933,206 +4944,200 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>621</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="E12" s="3">
-        <v>37000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>72000</v>
-      </c>
+        <v>40000</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="10">
-        <v>140000</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>661</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="10">
-        <v>155000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="10">
-        <v>150000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="10">
-        <v>190000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>622</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="10">
-        <v>140000</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>662</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="10">
-        <v>135000</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3">
         <v>40000</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="10">
-        <v>155000</v>
-      </c>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="3">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" s="3">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="10"/>
@@ -5145,7 +5150,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>58</v>
@@ -5154,77 +5159,77 @@
         <v>45000</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10">
+        <v>175000</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="3">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="10">
-        <v>175000</v>
-      </c>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>644</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E25" s="3">
         <v>50000</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10">
+        <v>190000</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3">
         <v>50000</v>
@@ -5236,37 +5241,35 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="10">
-        <v>190000</v>
-      </c>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" s="3">
         <v>45000</v>
@@ -5276,153 +5279,155 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E29" s="3">
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10">
+        <v>165000</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E30" s="3">
-        <v>42000</v>
+        <v>48000</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="10">
-        <v>165000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3">
-        <v>48000</v>
+        <v>38000</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="10">
-        <v>185000</v>
-      </c>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E32" s="3">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>623</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3">
-        <v>42000</v>
+        <v>48000</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>663</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E34" s="3">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E35" s="3">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="10">
+        <v>155000</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>93</v>
+        <v>624</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E36" s="3">
         <v>40000</v>
@@ -5434,1250 +5439,1248 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>664</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E37" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="10">
-        <v>155000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E38" s="3">
         <v>45000</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="10">
-        <v>175000</v>
-      </c>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E39" s="3">
-        <v>45000</v>
+        <v>70000</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10">
+        <v>265000</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E40" s="3">
-        <v>70000</v>
+        <v>58000</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="10">
-        <v>265000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>645</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E41" s="3">
-        <v>58000</v>
+        <v>50000</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="10">
-        <v>220000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E42" s="3">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="10">
-        <v>195000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E43" s="3">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="10">
-        <v>180000</v>
-      </c>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E44" s="3">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E45" s="3">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10">
+        <v>160000</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>646</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="E46" s="3">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="10">
-        <v>160000</v>
-      </c>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E47" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10">
+        <v>175000</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E48" s="3">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="10">
-        <v>175000</v>
-      </c>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E49" s="3">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E50" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E51" s="3">
-        <v>45000</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="10"/>
+        <v>50000</v>
+      </c>
+      <c r="F51" s="3">
+        <v>97000</v>
+      </c>
+      <c r="G51" s="10">
+        <v>190000</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E52" s="3">
-        <v>45000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>88000</v>
-      </c>
+        <v>68000</v>
+      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="10">
-        <v>175000</v>
+        <v>265000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>647</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E53" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F53" s="3">
-        <v>97000</v>
-      </c>
-      <c r="G53" s="10">
-        <v>190000</v>
-      </c>
+        <v>40000</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>648</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="E54" s="3">
-        <v>75000</v>
+        <v>43000</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E55" s="3">
-        <v>68000</v>
+        <v>58000</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="10">
-        <v>265000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="E56" s="3">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="10">
-        <v>155000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E57" s="3">
-        <v>42000</v>
+        <v>60000</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="E58" s="3">
-        <v>58000</v>
+        <v>48000</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="10">
-        <v>230000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="E59" s="3">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="10">
-        <v>210000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E60" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="10"/>
+        <v>50000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>95000</v>
+      </c>
+      <c r="G60" s="10">
+        <v>185000</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E61" s="3">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="10">
-        <v>190000</v>
-      </c>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="E62" s="3">
-        <v>52000</v>
+        <v>55000</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="10">
-        <v>200000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E63" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F63" s="3">
-        <v>95000</v>
-      </c>
+        <v>55000</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="10">
-        <v>185000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E64" s="3">
-        <v>45000</v>
+        <v>52000</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="10">
-        <v>175000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>649</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>39</v>
+        <v>651</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>163</v>
+        <v>652</v>
       </c>
       <c r="E65" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="10">
-        <v>210000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="E66" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="10">
-        <v>215000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>653</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="3">
-        <v>52000</v>
+        <v>45000</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="10">
-        <v>200000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E68" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="10">
-        <v>195000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>665</v>
+        <v>157</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="3">
-        <v>45000</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3">
+        <v>110000</v>
+      </c>
       <c r="G69" s="10">
-        <v>175000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="E70" s="3">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="10">
-        <v>215000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3">
-        <v>110000</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E71" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="10">
         <v>215000</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="E72" s="3">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="10">
-        <v>290000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E73" s="3">
-        <v>55000</v>
+        <v>48000</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="10">
-        <v>215000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E74" s="3">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F74" s="3"/>
-      <c r="G74" s="10">
-        <v>195000</v>
-      </c>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E75" s="3">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="10">
-        <v>180000</v>
-      </c>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E76" s="3">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="10">
+        <v>300000</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="E77" s="3">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="10"/>
+      <c r="G77" s="10">
+        <v>270000</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="E78" s="3">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="10">
-        <v>300000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79" s="3">
-        <v>70000</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="10">
-        <v>270000</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="E80" s="3">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="10">
-        <v>210000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>625</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3">
-        <v>140000</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="E82" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F82" s="3"/>
+        <v>55000</v>
+      </c>
+      <c r="F82" s="3">
+        <v>105000</v>
+      </c>
       <c r="G82" s="10">
-        <v>290000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>666</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="3">
-        <v>45000</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="10"/>
+      <c r="G83" s="10">
+        <v>340000</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="E84" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F84" s="3">
-        <v>105000</v>
-      </c>
+        <v>48000</v>
+      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="10">
-        <v>200000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="3">
+        <v>67000</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="10">
-        <v>350000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E86" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="E86" s="3">
+        <v>70000</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="10">
-        <v>340000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>202</v>
+        <v>655</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="E87" s="3">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="10">
-        <v>185000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>204</v>
+        <v>656</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="E88" s="3">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="10">
-        <v>260000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>626</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="3">
-        <v>105000</v>
+        <v>67000</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="10">
-        <v>420000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="E90" s="3">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="10">
-        <v>420000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="E91" s="3">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="10">
-        <v>270000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>667</v>
+        <v>207</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="E92" s="3">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="10">
-        <v>300000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E93" s="3">
-        <v>60000</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>55000</v>
+      </c>
+      <c r="F93" s="3">
+        <v>108000</v>
+      </c>
       <c r="G93" s="10">
-        <v>230000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>668</v>
+        <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E94" s="3">
-        <v>67000</v>
+        <v>50000</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="10">
-        <v>260000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="E95" s="3">
-        <v>85000</v>
-      </c>
-      <c r="F95" s="3"/>
+        <v>58000</v>
+      </c>
+      <c r="F95" s="3">
+        <v>112000</v>
+      </c>
       <c r="G95" s="10">
-        <v>320000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E96" s="3">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="10">
-        <v>210000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E97" s="3">
         <v>50000</v>
@@ -6689,888 +6692,880 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="E98" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F98" s="3">
-        <v>108000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="10">
-        <v>210000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="E99" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F99" s="3"/>
-      <c r="G99" s="10">
-        <v>195000</v>
-      </c>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E100" s="3">
-        <v>58000</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E100" s="3"/>
       <c r="F100" s="3">
-        <v>112000</v>
-      </c>
-      <c r="G100" s="10">
-        <v>210000</v>
-      </c>
+        <v>170000</v>
+      </c>
+      <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="E101" s="3">
-        <v>60000</v>
+        <v>95000</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="10">
-        <v>230000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E102" s="3">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="10">
-        <v>195000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="E103" s="3">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="10">
-        <v>195000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="E104" s="3">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="G104" s="10"/>
+      <c r="G104" s="10">
+        <v>240000</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>628</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3">
-        <v>170000</v>
-      </c>
-      <c r="G105" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="E105" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="10">
+        <v>200000</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>629</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="E106" s="3">
-        <v>95000</v>
-      </c>
-      <c r="F106" s="3"/>
+        <v>75000</v>
+      </c>
+      <c r="F106" s="3">
+        <v>145000</v>
+      </c>
       <c r="G106" s="10">
-        <v>360000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="3">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="10">
-        <v>350000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="E108" s="3">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="10">
-        <v>360000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="E109" s="3">
-        <v>65000</v>
+        <v>53000</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="10">
-        <v>240000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>670</v>
+        <v>244</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E110" s="3">
-        <v>53000</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="10">
-        <v>200000</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3">
+        <v>130000</v>
+      </c>
+      <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>671</v>
+        <v>246</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E111" s="3">
-        <v>75000</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E111" s="3"/>
       <c r="F111" s="3">
-        <v>145000</v>
-      </c>
-      <c r="G111" s="10">
-        <v>280000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>657</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D112" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E112" s="3">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="10">
-        <v>380000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="E113" s="3">
         <v>75000</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="10">
-        <v>280000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="E114" s="3">
-        <v>53000</v>
+        <v>60000</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="10">
-        <v>200000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="G115" s="9"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="E116" s="3">
-        <v>53000</v>
+        <v>75000</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="10">
-        <v>200000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="E117" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="10">
-        <v>290000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E118" s="3">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="10">
-        <v>230000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3">
-        <v>180000</v>
-      </c>
-      <c r="G119" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="E119" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="9">
+        <v>270000</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E120" s="3">
-        <v>75000</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="10">
-        <v>290000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="E121" s="3">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="F121" s="3"/>
-      <c r="G121" s="10">
-        <v>270000</v>
-      </c>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E122" s="3">
-        <v>58000</v>
+        <v>80000</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="10">
-        <v>220000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="E123" s="3">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="10">
-        <v>290000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E124" s="3">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="F124" s="3"/>
-      <c r="G124" s="10">
-        <v>270000</v>
-      </c>
+      <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>284</v>
+        <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E125" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E125" s="3">
+        <v>65000</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="10">
-        <v>500000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="E126" s="3">
-        <v>105000</v>
+        <v>55000</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="9"/>
+      <c r="G126" s="9">
+        <v>210000</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E127" s="3">
-        <v>80000</v>
+        <v>55000</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="10">
-        <v>300000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E128" s="3">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="10">
-        <v>230000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E129" s="3">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="F129" s="3"/>
-      <c r="G129" s="10"/>
+      <c r="G129" s="10">
+        <v>270000</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E130" s="3">
-        <v>65000</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="10">
-        <v>240000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="E131" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F131" s="3"/>
+        <v>65000</v>
+      </c>
+      <c r="F131" s="3">
+        <v>125000</v>
+      </c>
       <c r="G131" s="10">
-        <v>210000</v>
+        <v>235000</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E132" s="3">
-        <v>55000</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="10">
-        <v>215000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="E133" s="3">
-        <v>70000</v>
+        <v>85000</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="10">
-        <v>270000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E134" s="3">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="10">
-        <v>270000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E135" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="E135" s="3">
+        <v>100000</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="10">
-        <v>500000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="E136" s="3">
-        <v>65000</v>
-      </c>
-      <c r="F136" s="3">
-        <v>125000</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="F136" s="3"/>
       <c r="G136" s="10">
-        <v>235000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E137" s="3">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="10">
-        <v>500000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="E138" s="3">
-        <v>85000</v>
+        <v>67000</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="10">
-        <v>320000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>313</v>
+        <v>630</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E139" s="3">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="10">
-        <v>250000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E140" s="3">
         <v>100000</v>
@@ -7582,16 +7577,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="E141" s="3">
         <v>60000</v>
@@ -7603,58 +7598,58 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>321</v>
+        <v>190</v>
       </c>
       <c r="E142" s="3">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="10">
-        <v>650000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="E143" s="3">
-        <v>67000</v>
+        <v>70000</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="10">
-        <v>260000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>672</v>
+        <v>631</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="E144" s="3">
         <v>75000</v>
@@ -7666,313 +7661,315 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E145" s="3">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="10">
-        <v>380000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E146" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="10">
-        <v>230000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E147" s="3">
-        <v>80000</v>
-      </c>
-      <c r="F147" s="3"/>
+        <v>90000</v>
+      </c>
+      <c r="F147" s="3">
+        <v>175000</v>
+      </c>
       <c r="G147" s="10">
-        <v>300000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>333</v>
+        <v>68</v>
       </c>
       <c r="E148" s="3">
-        <v>70000</v>
+        <v>63000</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="10">
-        <v>270000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="E149" s="3">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="10">
-        <v>290000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E150" s="3">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="10">
-        <v>350000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="E151" s="3">
         <v>120000</v>
       </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="10">
-        <v>450000</v>
-      </c>
+      <c r="F151" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="E152" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F152" s="3">
-        <v>175000</v>
-      </c>
+        <v>72000</v>
+      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="10">
-        <v>340000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>340</v>
+        <v>633</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>341</v>
+        <v>634</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E153" s="3">
-        <v>63000</v>
+        <v>65000</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="10">
-        <v>240000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>674</v>
+        <v>330</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>429</v>
+        <v>331</v>
       </c>
       <c r="E154" s="3">
         <v>85000</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="10">
-        <v>330000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E155" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F155" s="3"/>
+        <v>78000</v>
+      </c>
+      <c r="F155" s="3">
+        <v>150000</v>
+      </c>
       <c r="G155" s="10">
         <v>290000</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="E156" s="3">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="9"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
       <c r="E157" s="3">
-        <v>72000</v>
+        <v>65000</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="10">
-        <v>270000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>675</v>
+        <v>339</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>676</v>
+        <v>340</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="E158" s="3">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="10">
-        <v>250000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E159" s="3">
-        <v>85000</v>
+        <v>83000</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="10">
@@ -7981,1491 +7978,1495 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>353</v>
+        <v>194</v>
       </c>
       <c r="E160" s="3">
-        <v>72000</v>
+        <v>130000</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="10">
-        <v>280000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D161" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E161" s="3">
-        <v>78000</v>
-      </c>
-      <c r="F161" s="3">
-        <v>150000</v>
-      </c>
-      <c r="G161" s="10">
-        <v>290000</v>
+        <v>95000</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="E162" s="3">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="G162" s="10"/>
+      <c r="G162" s="10" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E163" s="3">
-        <v>65000</v>
-      </c>
-      <c r="F163" s="3"/>
+        <v>355</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3">
+        <v>210000</v>
+      </c>
       <c r="G163" s="10">
-        <v>250000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E164" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="10">
-        <v>290000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E165" s="3">
-        <v>83000</v>
+        <v>130000</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="10">
-        <v>320000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="E166" s="3">
-        <v>130000</v>
+        <v>68000</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="10">
-        <v>500000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="E167" s="3">
-        <v>95000</v>
+        <v>200000</v>
       </c>
       <c r="F167" s="3"/>
-      <c r="G167" s="9" t="s">
-        <v>372</v>
+      <c r="G167" s="9">
+        <v>750000</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>370</v>
+        <v>2</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E168" s="3">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="F168" s="3"/>
-      <c r="G168" s="9" t="s">
-        <v>372</v>
+      <c r="G168" s="9">
+        <v>400000</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3">
-        <v>210000</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="E169" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F169" s="3"/>
       <c r="G169" s="10">
-        <v>400000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E170" s="3">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="10">
-        <v>380000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E171" s="3">
-        <v>130000</v>
+        <v>60000</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="10">
-        <v>500000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E172" s="3">
-        <v>68000</v>
+        <v>65000</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="10">
-        <v>260000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="E173" s="3">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="10">
-        <v>750000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="E174" s="3">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="10">
-        <v>400000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E175" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F175" s="3"/>
+        <v>140000</v>
+      </c>
+      <c r="F175" s="3">
+        <v>270000</v>
+      </c>
       <c r="G175" s="10">
-        <v>380000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>392</v>
+        <v>659</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>393</v>
+        <v>660</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="E176" s="3">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="10">
-        <v>420000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="E177" s="3">
-        <v>58000</v>
+        <v>120000</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="10">
-        <v>230000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>2</v>
+        <v>386</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>154</v>
+        <v>387</v>
       </c>
       <c r="E178" s="3">
-        <v>65000</v>
+        <v>200000</v>
       </c>
       <c r="F178" s="3"/>
-      <c r="G178" s="10">
-        <v>250000</v>
-      </c>
+      <c r="G178" s="10"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="E179" s="3">
-        <v>70000</v>
+        <v>130000</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="10">
-        <v>270000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="E180" s="3">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="10">
-        <v>360000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>402</v>
+        <v>661</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>403</v>
+        <v>140</v>
       </c>
       <c r="E181" s="3">
-        <v>140000</v>
+        <v>78000</v>
       </c>
       <c r="F181" s="3">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="G181" s="10">
-        <v>520000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E182" s="3">
-        <v>120000</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="10">
-        <v>450000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>408</v>
+        <v>168</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E183" s="3">
-        <v>120000</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E183" s="3"/>
       <c r="F183" s="3"/>
-      <c r="G183" s="10"/>
+      <c r="G183" s="10">
+        <v>450000</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="E184" s="3">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="10">
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="E185" s="3">
-        <v>70000</v>
+        <v>120000</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="10">
-        <v>270000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>396</v>
+        <v>292</v>
       </c>
       <c r="E186" s="3">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="10">
-        <v>290000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E187" s="3"/>
+        <v>404</v>
+      </c>
+      <c r="E187" s="3">
+        <v>90000</v>
+      </c>
       <c r="F187" s="3"/>
       <c r="G187" s="10">
-        <v>650000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E188" s="3"/>
+        <v>406</v>
+      </c>
+      <c r="E188" s="3">
+        <v>80000</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="10">
-        <v>450000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E189" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="E189" s="3">
+        <v>85000</v>
+      </c>
       <c r="F189" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G189" s="10"/>
+        <v>165000</v>
+      </c>
+      <c r="G189" s="10">
+        <v>320000</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E190" s="3">
-        <v>80000</v>
-      </c>
-      <c r="F190" s="3"/>
+        <v>410</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3">
+        <v>260000</v>
+      </c>
       <c r="G190" s="10">
-        <v>300000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E191" s="3">
-        <v>120000</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="10">
-        <v>450000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="E192" s="3">
-        <v>105000</v>
+        <v>90000</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="10">
-        <v>400000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="E193" s="3">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="10">
-        <v>340000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>430</v>
+        <v>635</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>428</v>
+        <v>636</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E194" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="10">
-        <v>300000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="E195" s="3">
-        <v>85000</v>
-      </c>
-      <c r="F195" s="3">
-        <v>165000</v>
-      </c>
+        <v>75000</v>
+      </c>
+      <c r="F195" s="3"/>
       <c r="G195" s="10">
-        <v>320000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3">
-        <v>260000</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E196" s="3">
+        <v>85000</v>
+      </c>
+      <c r="F196" s="3"/>
       <c r="G196" s="10">
-        <v>500000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E197" s="3"/>
+        <v>423</v>
+      </c>
+      <c r="E197" s="3">
+        <v>85000</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="10">
-        <v>500000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E198" s="3">
-        <v>90000</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="10">
-        <v>340000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>441</v>
+        <v>662</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E199" s="3">
-        <v>85000</v>
-      </c>
-      <c r="F199" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3">
+        <v>240000</v>
+      </c>
       <c r="G199" s="10">
-        <v>320000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>678</v>
+        <v>419</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>431</v>
+        <v>98</v>
       </c>
       <c r="E200" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F200" s="3"/>
+        <v>95000</v>
+      </c>
+      <c r="F200" s="3">
+        <v>185000</v>
+      </c>
       <c r="G200" s="10">
-        <v>290000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>443</v>
+        <v>664</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>80</v>
+        <v>665</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>431</v>
+        <v>666</v>
       </c>
       <c r="E201" s="3">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="10">
-        <v>280000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="E202" s="3">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="10">
-        <v>330000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>191</v>
+        <v>430</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E203" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="E203" s="3">
+        <v>85000</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="10">
-        <v>500000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>449</v>
+        <v>199</v>
       </c>
       <c r="E204" s="3">
-        <v>85000</v>
+        <v>70000</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="10">
-        <v>330000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
+      <c r="F205" s="3">
+        <v>250000</v>
+      </c>
       <c r="G205" s="10">
         <v>480000</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E206" s="3">
-        <v>85000</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="10">
-        <v>320000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>453</v>
+        <v>667</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>455</v>
+        <v>134</v>
       </c>
       <c r="E207" s="3">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="10">
-        <v>290000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>103</v>
+        <v>423</v>
       </c>
       <c r="E208" s="3">
-        <v>85000</v>
+        <v>105000</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="10">
-        <v>330000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>458</v>
+        <v>669</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>459</v>
+        <v>670</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="E209" s="3">
-        <v>70000</v>
-      </c>
-      <c r="F209" s="3"/>
+        <v>95000</v>
+      </c>
+      <c r="F209" s="3">
+        <v>185000</v>
+      </c>
       <c r="G209" s="10">
-        <v>260000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E210" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E210" s="3">
+        <v>75000</v>
+      </c>
       <c r="F210" s="3">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="G210" s="10">
-        <v>480000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>462</v>
+        <v>637</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>463</v>
+        <v>638</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E211" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F211" s="3">
+        <v>150000</v>
+      </c>
       <c r="G211" s="10">
-        <v>450000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E212" s="3">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="10">
-        <v>350000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>468</v>
+        <v>671</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>469</v>
+        <v>672</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="E213" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F213" s="3">
-        <v>140000</v>
-      </c>
+        <v>90000</v>
+      </c>
+      <c r="F213" s="3"/>
       <c r="G213" s="10">
-        <v>270000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>679</v>
+        <v>443</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>680</v>
+        <v>444</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>154</v>
+        <v>408</v>
       </c>
       <c r="E214" s="3">
-        <v>80000</v>
-      </c>
-      <c r="F214" s="3">
-        <v>150000</v>
-      </c>
+        <v>110000</v>
+      </c>
+      <c r="F214" s="3"/>
       <c r="G214" s="10">
-        <v>300000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>470</v>
+        <v>673</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>471</v>
+        <v>674</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="E215" s="3">
         <v>80000</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="10">
-        <v>300000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E216" s="3">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="10">
-        <v>420000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E217" s="3">
-        <v>85000</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="10">
-        <v>320000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E218" s="3"/>
+        <v>415</v>
+      </c>
+      <c r="E218" s="3">
+        <v>100000</v>
+      </c>
       <c r="F218" s="3"/>
       <c r="G218" s="10">
-        <v>750000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="E219" s="3">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="10">
-        <v>420000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E220" s="3">
-        <v>130000</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="10">
-        <v>500000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E221" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E221" s="3">
+        <v>65000</v>
+      </c>
       <c r="F221" s="3"/>
       <c r="G221" s="10">
-        <v>700000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="E222" s="3">
-        <v>65000</v>
+        <v>120000</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="10">
-        <v>250000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>486</v>
+        <v>313</v>
       </c>
       <c r="E223" s="3">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="F223" s="3"/>
-      <c r="G223" s="10">
-        <v>450000</v>
-      </c>
+      <c r="G223" s="10"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>333</v>
       </c>
       <c r="E224" s="3">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="F224" s="3"/>
-      <c r="G224" s="10"/>
+      <c r="G224" s="10">
+        <v>340000</v>
+      </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E225" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F225" s="3"/>
+        <v>421</v>
+      </c>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3">
+        <v>280000</v>
+      </c>
       <c r="G225" s="10">
-        <v>340000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>447</v>
+        <v>329</v>
       </c>
       <c r="E226" s="3"/>
-      <c r="F226" s="3">
-        <v>280000</v>
-      </c>
+      <c r="F226" s="3"/>
       <c r="G226" s="10">
         <v>550000</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E227" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="E227" s="3">
+        <v>85000</v>
+      </c>
       <c r="F227" s="3"/>
       <c r="G227" s="10">
-        <v>550000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3">
-        <v>260000</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="E228" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F228" s="3"/>
       <c r="G228" s="10">
-        <v>500000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="E229" s="3">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="F229" s="3"/>
-      <c r="G229" s="10">
-        <v>340000</v>
-      </c>
+      <c r="G229" s="10"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E230" s="3">
-        <v>90000</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="10">
-        <v>350000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="E231" s="3">
         <v>80000</v>
@@ -9475,914 +9476,924 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E232" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="E232" s="3">
+        <v>130000</v>
+      </c>
       <c r="F232" s="3"/>
       <c r="G232" s="10">
-        <v>550000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="E233" s="3">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F233" s="3"/>
-      <c r="G233" s="9"/>
+      <c r="G233" s="9">
+        <v>390000</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>502</v>
+        <v>675</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>503</v>
+        <v>423</v>
       </c>
       <c r="E234" s="3">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="10">
-        <v>500000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E235" s="3">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="10">
-        <v>390000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E236" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F236" s="3"/>
-      <c r="G236" s="10">
-        <v>350000</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G236" s="10"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3">
-        <v>200000</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E237" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F237" s="3"/>
       <c r="G237" s="9"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>509</v>
+        <v>639</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>370</v>
+        <v>2</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>371</v>
+        <v>140</v>
       </c>
       <c r="E238" s="3">
-        <v>110000</v>
-      </c>
-      <c r="F238" s="3"/>
-      <c r="G238" s="9"/>
+        <v>80000</v>
+      </c>
+      <c r="F238" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G238" s="9">
+        <v>300000</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="E239" s="3">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="F239" s="3"/>
-      <c r="G239" s="9"/>
+      <c r="G239" s="9">
+        <v>300000</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="E240" s="3">
-        <v>80000</v>
-      </c>
-      <c r="F240" s="3">
-        <v>150000</v>
-      </c>
+        <v>125000</v>
+      </c>
+      <c r="F240" s="3"/>
       <c r="G240" s="10">
-        <v>300000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E241" s="3">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="10">
-        <v>300000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="E242" s="3">
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="10">
-        <v>350000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="E243" s="3">
-        <v>140000</v>
+        <v>85000</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="10">
-        <v>540000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="E244" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F244" s="3"/>
+        <v>140000</v>
+      </c>
+      <c r="F244" s="3">
+        <v>270000</v>
+      </c>
       <c r="G244" s="10">
-        <v>460000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E245" s="3">
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="10">
-        <v>330000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E246" s="3">
-        <v>140000</v>
-      </c>
-      <c r="F246" s="3">
-        <v>270000</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
       <c r="G246" s="10">
-        <v>520000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E247" s="3">
-        <v>90000</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="10">
-        <v>350000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>528</v>
+        <v>679</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E248" s="3"/>
+        <v>415</v>
+      </c>
+      <c r="E248" s="3">
+        <v>105000</v>
+      </c>
       <c r="F248" s="3"/>
       <c r="G248" s="10">
-        <v>750000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="10">
-        <v>750000</v>
-      </c>
+      <c r="F249" s="3">
+        <v>240000</v>
+      </c>
+      <c r="G249" s="10"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3">
-        <v>240000</v>
-      </c>
-      <c r="G250" s="9"/>
+        <v>329</v>
+      </c>
+      <c r="E250" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="G250" s="9">
+        <v>450000</v>
+      </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E251" s="3">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="10">
-        <v>450000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="E252" s="3">
-        <v>90000</v>
+        <v>105000</v>
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="10">
-        <v>350000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="E253" s="3">
-        <v>105000</v>
+        <v>90000</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="10">
-        <v>400000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>540</v>
+        <v>98</v>
       </c>
       <c r="E254" s="3">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="10">
-        <v>350000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>39</v>
+        <v>510</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>103</v>
+        <v>511</v>
       </c>
       <c r="E255" s="3">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="10">
-        <v>390000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>544</v>
+        <v>2</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="E256" s="3">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F256" s="3"/>
-      <c r="G256" s="10">
-        <v>280000</v>
-      </c>
+      <c r="G256" s="10"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="E257" s="3">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F257" s="3"/>
-      <c r="G257" s="9"/>
+      <c r="G257" s="9">
+        <v>350000</v>
+      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>540</v>
+        <v>98</v>
       </c>
       <c r="E258" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F258" s="3"/>
+        <v>125000</v>
+      </c>
+      <c r="F258" s="3">
+        <v>245000</v>
+      </c>
       <c r="G258" s="10">
-        <v>350000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E259" s="3">
-        <v>125000</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="E259" s="3"/>
       <c r="F259" s="3">
-        <v>245000</v>
-      </c>
-      <c r="G259" s="10">
-        <v>480000</v>
-      </c>
+        <v>250000</v>
+      </c>
+      <c r="G259" s="10"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>245</v>
+        <v>518</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3">
-        <v>250000</v>
-      </c>
-      <c r="G260" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="E260" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F260" s="3"/>
+      <c r="G260" s="10">
+        <v>500000</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>552</v>
+        <v>36</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>277</v>
+        <v>641</v>
       </c>
       <c r="E261" s="3">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="10">
-        <v>500000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>683</v>
+        <v>415</v>
       </c>
       <c r="E262" s="3">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="10">
-        <v>480000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E263" s="3">
-        <v>110000</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E263" s="3"/>
       <c r="F263" s="3"/>
-      <c r="G263" s="10"/>
+      <c r="G263" s="10">
+        <v>750000</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E264" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="E264" s="3">
+        <v>115000</v>
+      </c>
       <c r="F264" s="3"/>
       <c r="G264" s="10">
-        <v>750000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E265" s="3">
-        <v>115000</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="10">
-        <v>450000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E266" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="E266" s="3">
+        <v>100000</v>
+      </c>
       <c r="F266" s="3"/>
       <c r="G266" s="10">
-        <v>750000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E267" s="3">
-        <v>100000</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="10">
-        <v>380000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E268" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="E268" s="3">
+        <v>100000</v>
+      </c>
       <c r="F268" s="3"/>
       <c r="G268" s="10">
-        <v>400000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>312</v>
+        <v>533</v>
       </c>
       <c r="E269" s="3">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F269" s="3"/>
-      <c r="G269" s="10"/>
+      <c r="G269" s="10">
+        <v>350000</v>
+      </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>567</v>
+        <v>98</v>
       </c>
       <c r="E270" s="3">
-        <v>90000</v>
+        <v>105000</v>
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="10">
-        <v>350000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>568</v>
+        <v>680</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>566</v>
+        <v>681</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E271" s="2">
-        <v>105000</v>
+        <v>160000</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="10">
-        <v>410000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E272" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="E272" s="3">
+        <v>145000</v>
+      </c>
       <c r="F272" s="3"/>
       <c r="G272" s="10">
-        <v>1000000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E273" s="3">
-        <v>120000</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="10">
-        <v>470000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>575</v>
+        <v>98</v>
       </c>
       <c r="E274" s="3">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="10">
-        <v>580000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>217</v>
+        <v>541</v>
       </c>
       <c r="E275" s="3">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="10">
-        <v>700000</v>
+        <v>580000</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>578</v>
+        <v>199</v>
       </c>
       <c r="E276" s="3">
         <v>200000</v>
@@ -10394,262 +10405,272 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>103</v>
+        <v>544</v>
       </c>
       <c r="E277" s="3">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="10">
-        <v>470000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="E278" s="3">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="10">
-        <v>500000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>583</v>
+        <v>315</v>
       </c>
       <c r="E279" s="3">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="10">
-        <v>800000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E280" s="3"/>
+        <v>549</v>
+      </c>
+      <c r="E280" s="3">
+        <v>200000</v>
+      </c>
       <c r="F280" s="3"/>
-      <c r="G280" s="10"/>
+      <c r="G280" s="10">
+        <v>800000</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E281" s="3"/>
+        <v>423</v>
+      </c>
+      <c r="E281" s="3">
+        <v>110000</v>
+      </c>
       <c r="F281" s="3"/>
-      <c r="G281" s="10"/>
+      <c r="G281" s="10">
+        <v>220000</v>
+      </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>408</v>
+        <v>36</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>589</v>
+        <v>98</v>
       </c>
       <c r="E282" s="3">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="F282" s="3">
-        <v>230000</v>
+        <v>255000</v>
       </c>
       <c r="G282" s="10">
-        <v>400000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>588</v>
+        <v>554</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>103</v>
+        <v>555</v>
       </c>
       <c r="E283" s="3">
-        <v>110000</v>
-      </c>
-      <c r="F283" s="3"/>
+        <v>120000</v>
+      </c>
+      <c r="F283" s="3">
+        <v>230000</v>
+      </c>
       <c r="G283" s="10">
-        <v>430000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="E284" s="3">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="10">
-        <v>540000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="E285" s="3">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="10">
-        <v>500000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>595</v>
+        <v>98</v>
       </c>
       <c r="E286" s="3">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="10">
-        <v>430000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>103</v>
+        <v>561</v>
       </c>
       <c r="E287" s="3">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="10">
-        <v>480000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>503</v>
+        <v>98</v>
       </c>
       <c r="E288" s="3">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="10">
-        <v>600000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="E289" s="3"/>
       <c r="F289" s="3">
@@ -10659,16 +10680,16 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E290" s="3">
         <v>120000</v>
@@ -10680,16 +10701,16 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E291" s="3"/>
       <c r="F291" s="3">
@@ -10699,16 +10720,16 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E292" s="3">
         <v>130000</v>
@@ -10720,16 +10741,16 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E293" s="3">
         <v>150000</v>
@@ -10741,16 +10762,16 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="E294" s="3">
         <v>150000</v>
@@ -10760,16 +10781,16 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E295" s="3">
         <v>190000</v>
@@ -10781,16 +10802,16 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E296" s="3">
         <v>160000</v>
@@ -10802,16 +10823,16 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E297" s="3">
         <v>160000</v>
@@ -10823,16 +10844,16 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E298" s="3">
         <v>150000</v>
@@ -10844,16 +10865,16 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E299" s="3">
         <v>160000</v>
@@ -10865,16 +10886,16 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="E300" s="3">
         <v>135000</v>
@@ -10884,17 +10905,15 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>622</v>
+        <v>684</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>625</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="D301" s="2"/>
       <c r="E301" s="3">
         <v>140000</v>
       </c>
@@ -10903,16 +10922,16 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E302" s="3">
         <v>140000</v>
@@ -10922,16 +10941,16 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E303" s="3">
         <v>190000</v>
@@ -10945,16 +10964,16 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E304" s="3">
         <v>115000</v>
@@ -10968,16 +10987,16 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E305" s="3">
         <v>38000</v>
@@ -10989,140 +11008,138 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>35</v>
+        <v>600</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>637</v>
+        <v>98</v>
       </c>
       <c r="E306" s="3">
-        <v>37000</v>
+        <v>50000</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="10">
-        <v>140000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>638</v>
+        <v>601</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>103</v>
+        <v>603</v>
       </c>
       <c r="E307" s="3">
         <v>50000</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="10">
-        <v>190000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="E308" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="10">
-        <v>195000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="E309" s="3">
-        <v>55000</v>
+        <v>80000</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="10">
-        <v>215000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>646</v>
+        <v>609</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>35</v>
+        <v>610</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="E310" s="3">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="F310" s="3"/>
-      <c r="G310" s="10">
-        <v>310000</v>
-      </c>
+      <c r="G310" s="10"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="E311" s="3">
-        <v>95000</v>
+        <v>120000</v>
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="9"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="E312" s="3">
         <v>105000</v>

--- a/files/LISTA DE PRECIOS MARKET.xlsx
+++ b/files/LISTA DE PRECIOS MARKET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matia\BuscadorPorMedida\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B065B8-A9AF-4D13-8DA3-3757AC88618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2519F-E191-47AC-ACA2-1F8B5E1BA6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1770" windowWidth="21555" windowHeight="11835" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21555" windowHeight="11835" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="736">
   <si>
     <t>1457012ROADT01</t>
   </si>
@@ -1469,18 +1469,9 @@
     <t>235/75R15</t>
   </si>
   <si>
-    <t>2357515PRATR</t>
-  </si>
-  <si>
-    <t>SCORPION ATR</t>
-  </si>
-  <si>
     <t>2453518ROADU11RF</t>
   </si>
   <si>
-    <t>245/35ZRZ18</t>
-  </si>
-  <si>
     <t>2454018ROADU11</t>
   </si>
   <si>
@@ -1682,12 +1673,6 @@
     <t>2656517COMFCF11</t>
   </si>
   <si>
-    <t>2656517WPAT3WTH</t>
-  </si>
-  <si>
-    <t>AT3W</t>
-  </si>
-  <si>
     <t>2656517ROADT21</t>
   </si>
   <si>
@@ -1742,9 +1727,6 @@
     <t>275/40R20</t>
   </si>
   <si>
-    <t>2754520PRSCVR</t>
-  </si>
-  <si>
     <t>275/45R20</t>
   </si>
   <si>
@@ -2012,9 +1994,6 @@
     <t>2056515ROADH12</t>
   </si>
   <si>
-    <t>SOLO 3</t>
-  </si>
-  <si>
     <t>2255015RRAINTAS</t>
   </si>
   <si>
@@ -2100,6 +2079,171 @@
   </si>
   <si>
     <t>CUBRE Y CAMARA</t>
+  </si>
+  <si>
+    <t>1656014SN832IN</t>
+  </si>
+  <si>
+    <t>SN832</t>
+  </si>
+  <si>
+    <t>1656014NXGX</t>
+  </si>
+  <si>
+    <t>NPRIZ GX</t>
+  </si>
+  <si>
+    <t>1656513ROTARONE</t>
+  </si>
+  <si>
+    <t>RONE</t>
+  </si>
+  <si>
+    <t>1656514NXGX</t>
+  </si>
+  <si>
+    <t>1657013ROADMP28</t>
+  </si>
+  <si>
+    <t>165/70R13C</t>
+  </si>
+  <si>
+    <t>ROADMARCH</t>
+  </si>
+  <si>
+    <t>PRIMEVAN 28</t>
+  </si>
+  <si>
+    <t>1657014NXGX</t>
+  </si>
+  <si>
+    <t>1756514NXGX</t>
+  </si>
+  <si>
+    <t>OHTSU</t>
+  </si>
+  <si>
+    <t>FP1000</t>
+  </si>
+  <si>
+    <t>1757013NXGX</t>
+  </si>
+  <si>
+    <t>1757014NXAH5</t>
+  </si>
+  <si>
+    <t>NPRIZ AH5</t>
+  </si>
+  <si>
+    <t>1855516ROADMEC99</t>
+  </si>
+  <si>
+    <t>ECOPRO 99</t>
+  </si>
+  <si>
+    <t>1856015NXCP672</t>
+  </si>
+  <si>
+    <t>CP672</t>
+  </si>
+  <si>
+    <t>1856515NXGX</t>
+  </si>
+  <si>
+    <t>1955015LANDSP</t>
+  </si>
+  <si>
+    <t>LANDSPIDER</t>
+  </si>
+  <si>
+    <t>AVATAR</t>
+  </si>
+  <si>
+    <t>1955015ROADMAS</t>
+  </si>
+  <si>
+    <t>PRIME AS</t>
+  </si>
+  <si>
+    <t>1955015NXGX</t>
+  </si>
+  <si>
+    <t>19956515ROADMAS</t>
+  </si>
+  <si>
+    <t>1956515NXGX</t>
+  </si>
+  <si>
+    <t>1956515NXAH5</t>
+  </si>
+  <si>
+    <t>2055516NXGX</t>
+  </si>
+  <si>
+    <t>2056015GOODY</t>
+  </si>
+  <si>
+    <t>EFICIENT GRIP</t>
+  </si>
+  <si>
+    <t>2154517APTRA301</t>
+  </si>
+  <si>
+    <t>215/45R17</t>
+  </si>
+  <si>
+    <t>2155017APT301</t>
+  </si>
+  <si>
+    <t>2157514ROADMP9</t>
+  </si>
+  <si>
+    <t>PRIMEVAN 9</t>
+  </si>
+  <si>
+    <t>2254018ROADMUHP08</t>
+  </si>
+  <si>
+    <t>225/40R18</t>
+  </si>
+  <si>
+    <t>UHP 08</t>
+  </si>
+  <si>
+    <t>2255017ROADMUHP08</t>
+  </si>
+  <si>
+    <t>2255517ROADMP66</t>
+  </si>
+  <si>
+    <t>PRIMESTAR 66</t>
+  </si>
+  <si>
+    <t>2356517NXGTX</t>
+  </si>
+  <si>
+    <t>ROADIAN GTX</t>
+  </si>
+  <si>
+    <t>2356518ROADT01</t>
+  </si>
+  <si>
+    <t>235/65R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2453518ROADU11 </t>
+  </si>
+  <si>
+    <t>245/35R18</t>
+  </si>
+  <si>
+    <t>245/35ZRF18</t>
+  </si>
+  <si>
+    <t>2453519ROADU11</t>
+  </si>
+  <si>
+    <t>245/35R19</t>
   </si>
 </sst>
 </file>
@@ -4358,8 +4502,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:G312" totalsRowShown="0" headerRowDxfId="207" tableBorderDxfId="206">
-  <autoFilter ref="A1:G312" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:G340" totalsRowShown="0" headerRowDxfId="207" tableBorderDxfId="206">
+  <autoFilter ref="A1:G340" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EA449B72-83DE-46B5-B319-FA996C850BC5}" name="SKU"/>
     <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="205"/>
@@ -4690,10 +4834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD7E8A9-DA65-5E44-83F0-9CA8370198F0}">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G312"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4709,25 +4853,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4898,7 +5042,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -4944,7 +5088,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -5028,229 +5172,237 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>622</v>
+        <v>681</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>682</v>
       </c>
       <c r="E16" s="3">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="10">
-        <v>135000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>683</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>684</v>
       </c>
       <c r="E17" s="3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="10">
-        <v>155000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>685</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>686</v>
       </c>
       <c r="E18" s="3">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>135000</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>616</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E19" s="3">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10">
+        <v>155000</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10">
+        <v>155000</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>687</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>684</v>
       </c>
       <c r="E21" s="3">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10">
+        <v>215000</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="10">
-        <v>175000</v>
-      </c>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>637</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>689</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>691</v>
+      </c>
       <c r="E24" s="3">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3">
-        <v>50000</v>
+        <v>38000</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="10">
-        <v>190000</v>
-      </c>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>692</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>684</v>
       </c>
       <c r="E26" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="10">
-        <v>190000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E27" s="3">
         <v>45000</v>
@@ -5260,128 +5412,126 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3">
         <v>45000</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="10">
+        <v>175000</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="3">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="10">
-        <v>165000</v>
-      </c>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>638</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="3">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="10">
-        <v>185000</v>
-      </c>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="10">
+        <v>190000</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E32" s="3">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10">
+        <v>190000</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>623</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E33" s="3">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -5390,551 +5540,547 @@
         <v>15</v>
       </c>
       <c r="E34" s="3">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="10">
-        <v>155000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>624</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="10">
-        <v>155000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E37" s="3">
-        <v>45000</v>
+        <v>38000</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="10">
-        <v>175000</v>
-      </c>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>693</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>684</v>
       </c>
       <c r="E38" s="3">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>96</v>
+      <c r="A39" s="1">
+        <v>17565141000</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>694</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>98</v>
+        <v>695</v>
       </c>
       <c r="E39" s="3">
-        <v>70000</v>
+        <v>45000</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="10">
-        <v>265000</v>
-      </c>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E40" s="3">
-        <v>58000</v>
+        <v>42000</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="10">
-        <v>220000</v>
-      </c>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="E41" s="3">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="10">
-        <v>190000</v>
-      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E42" s="3">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="10">
-        <v>180000</v>
-      </c>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E43" s="3">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="10">
+        <v>155000</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>696</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>684</v>
       </c>
       <c r="E44" s="3">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>618</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E45" s="3">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="10">
-        <v>160000</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>646</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E46" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10">
+        <v>175000</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>697</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>698</v>
       </c>
       <c r="E47" s="3">
-        <v>45000</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>65000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>125000</v>
+      </c>
       <c r="G47" s="10">
-        <v>175000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E48" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E49" s="3">
-        <v>45000</v>
+        <v>70000</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10">
+        <v>265000</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E50" s="3">
-        <v>45000</v>
+        <v>58000</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="10">
+        <v>220000</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>639</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="E51" s="3">
         <v>50000</v>
       </c>
-      <c r="F51" s="3">
-        <v>97000</v>
-      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="10">
         <v>190000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="E52" s="3">
-        <v>68000</v>
+        <v>48000</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="10">
-        <v>265000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>647</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E53" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>648</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E54" s="3">
-        <v>43000</v>
+        <v>55000</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10">
+        <v>215000</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>699</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>690</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>134</v>
+        <v>700</v>
       </c>
       <c r="E55" s="3">
-        <v>58000</v>
+        <v>48000</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="10">
-        <v>230000</v>
-      </c>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E56" s="3">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="10">
-        <v>210000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>640</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="E57" s="3">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E58" s="3">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="10">
-        <v>190000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>701</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>68</v>
+        <v>702</v>
       </c>
       <c r="E59" s="3">
-        <v>52000</v>
+        <v>75000</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="10">
-        <v>200000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E60" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>95000</v>
-      </c>
-      <c r="G60" s="10">
-        <v>185000</v>
-      </c>
+        <v>40000</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E61" s="3">
         <v>45000</v>
@@ -5943,198 +6089,191 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>148</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E62" s="3">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="10">
-        <v>210000</v>
-      </c>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="E63" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>50000</v>
+      </c>
+      <c r="F63" s="3">
+        <v>97000</v>
+      </c>
       <c r="G63" s="10">
-        <v>215000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>703</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>68</v>
+        <v>684</v>
       </c>
       <c r="E64" s="3">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="10">
-        <v>200000</v>
+        <v>235000</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>649</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>650</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>651</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>652</v>
+        <v>128</v>
       </c>
       <c r="E65" s="3">
-        <v>50000</v>
+        <v>68000</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="10">
-        <v>195000</v>
+        <v>265000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>154</v>
+        <v>641</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E66" s="3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="10">
-        <v>195000</v>
-      </c>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E67" s="3">
-        <v>45000</v>
+        <v>43000</v>
       </c>
       <c r="F67" s="3"/>
-      <c r="G67" s="10">
-        <v>175000</v>
-      </c>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E68" s="3">
-        <v>55000</v>
+        <v>58000</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="10">
-        <v>215000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3">
-        <v>110000</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E69" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="10">
-        <v>215000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E70" s="3">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="F70" s="3"/>
-      <c r="G70" s="10">
-        <v>290000</v>
-      </c>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -6143,61 +6282,63 @@
         <v>68</v>
       </c>
       <c r="E71" s="3">
-        <v>55000</v>
+        <v>48000</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="10">
-        <v>215000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E72" s="3">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="10">
-        <v>195000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E73" s="3">
-        <v>48000</v>
-      </c>
-      <c r="F73" s="3"/>
+        <v>50000</v>
+      </c>
+      <c r="F73" s="3">
+        <v>95000</v>
+      </c>
       <c r="G73" s="10">
-        <v>180000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>75</v>
@@ -6213,151 +6354,157 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="E75" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="10"/>
+      <c r="G75" s="10">
+        <v>210000</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E76" s="3">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="10">
-        <v>300000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>170</v>
+        <v>704</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>60</v>
+        <v>705</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>172</v>
+        <v>706</v>
       </c>
       <c r="E77" s="3">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="10">
-        <v>270000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>707</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>2</v>
+        <v>690</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F78" s="3"/>
+        <v>708</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3">
+        <v>105000</v>
+      </c>
       <c r="G78" s="10">
-        <v>210000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>709</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3">
-        <v>140000</v>
-      </c>
-      <c r="G79" s="10"/>
+        <v>684</v>
+      </c>
+      <c r="E79" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="10">
+        <v>235000</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="E80" s="3">
-        <v>75000</v>
+        <v>52000</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="10">
-        <v>290000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>176</v>
+        <v>644</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>645</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>15</v>
+        <v>646</v>
       </c>
       <c r="E81" s="3">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="10">
+        <v>195000</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2</v>
@@ -6366,250 +6513,244 @@
         <v>68</v>
       </c>
       <c r="E82" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F82" s="3">
-        <v>105000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="10">
-        <v>200000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E83" s="3"/>
+        <v>648</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3">
+        <v>45000</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="10">
-        <v>340000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E84" s="3">
-        <v>48000</v>
+        <v>55000</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="10">
-        <v>185000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" s="3">
-        <v>67000</v>
-      </c>
-      <c r="F85" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3">
+        <v>110000</v>
+      </c>
       <c r="G85" s="10">
-        <v>260000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="E86" s="3">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="10">
-        <v>270000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>655</v>
+        <v>159</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="E87" s="3">
-        <v>80000</v>
+        <v>55000</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="10">
-        <v>300000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>656</v>
+        <v>161</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="E88" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="10">
-        <v>230000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>626</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D89" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E89" s="3">
-        <v>67000</v>
+        <v>48000</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="10">
-        <v>260000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E90" s="3">
-        <v>85000</v>
+        <v>45000</v>
       </c>
       <c r="F90" s="3"/>
-      <c r="G90" s="10">
-        <v>320000</v>
-      </c>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="E91" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="G91" s="10">
-        <v>210000</v>
-      </c>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="E92" s="3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="10">
-        <v>195000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E93" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F93" s="3">
-        <v>108000</v>
-      </c>
+        <v>70000</v>
+      </c>
+      <c r="F93" s="3"/>
       <c r="G93" s="10">
-        <v>210000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -6618,616 +6759,622 @@
         <v>68</v>
       </c>
       <c r="E94" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="10">
-        <v>195000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" s="3">
-        <v>58000</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E95" s="3"/>
       <c r="F95" s="3">
-        <v>112000</v>
-      </c>
-      <c r="G95" s="10">
-        <v>210000</v>
-      </c>
+        <v>140000</v>
+      </c>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="E96" s="3">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="10">
-        <v>230000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>619</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="E97" s="3">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F97" s="3"/>
-      <c r="G97" s="10">
-        <v>195000</v>
-      </c>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="E98" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F98" s="3"/>
+        <v>55000</v>
+      </c>
+      <c r="F98" s="3">
+        <v>105000</v>
+      </c>
       <c r="G98" s="10">
-        <v>195000</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>223</v>
+        <v>710</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>60</v>
+        <v>690</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>224</v>
+        <v>708</v>
       </c>
       <c r="E99" s="3">
         <v>55000</v>
       </c>
       <c r="F99" s="3"/>
-      <c r="G99" s="10"/>
+      <c r="G99" s="10">
+        <v>210000</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>225</v>
+        <v>711</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3">
-        <v>170000</v>
-      </c>
-      <c r="G100" s="10"/>
+        <v>684</v>
+      </c>
+      <c r="E100" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="10">
+        <v>250000</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>712</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>230</v>
+        <v>698</v>
       </c>
       <c r="E101" s="3">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="10">
-        <v>360000</v>
+        <v>295000</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E102" s="3">
-        <v>90000</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="10">
-        <v>350000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="E103" s="3">
-        <v>95000</v>
+        <v>48000</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="10">
-        <v>360000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E104" s="3">
-        <v>65000</v>
+        <v>67000</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="10">
-        <v>240000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>628</v>
+        <v>195</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="E105" s="3">
-        <v>53000</v>
+        <v>70000</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="10">
-        <v>200000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="E106" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F106" s="3">
-        <v>145000</v>
-      </c>
+        <v>80000</v>
+      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="10">
-        <v>280000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>238</v>
+        <v>650</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E107" s="3">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="10">
-        <v>380000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>620</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="3">
-        <v>75000</v>
+        <v>67000</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="10">
-        <v>280000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="E109" s="3">
-        <v>53000</v>
+        <v>85000</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="10">
-        <v>200000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3">
-        <v>130000</v>
-      </c>
-      <c r="G110" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="E110" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="10">
+        <v>210000</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G111" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="E111" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="10">
+        <v>195000</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>657</v>
+        <v>209</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="E112" s="3">
         <v>55000</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="3">
+        <v>108000</v>
+      </c>
       <c r="G112" s="10">
-        <v>215000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E113" s="3">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="10">
-        <v>290000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="E114" s="3">
-        <v>60000</v>
-      </c>
-      <c r="F114" s="3"/>
+        <v>58000</v>
+      </c>
+      <c r="F114" s="3">
+        <v>112000</v>
+      </c>
       <c r="G114" s="10">
-        <v>230000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3">
-        <v>180000</v>
-      </c>
-      <c r="G115" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="E115" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="9">
+        <v>230000</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E116" s="3">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="10">
-        <v>290000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>257</v>
+        <v>84</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="E117" s="3">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="10">
-        <v>270000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E118" s="3">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="10">
-        <v>290000</v>
-      </c>
+      <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E119" s="3">
-        <v>70000</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="9">
-        <v>270000</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3">
+        <v>170000</v>
+      </c>
+      <c r="G119" s="9"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E120" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="E120" s="3">
+        <v>95000</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="10">
-        <v>500000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>266</v>
+        <v>713</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>192</v>
+        <v>684</v>
       </c>
       <c r="E121" s="3">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="F121" s="3"/>
-      <c r="G121" s="10"/>
+      <c r="G121" s="10">
+        <v>290000</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="E122" s="3">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="10">
-        <v>300000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="E123" s="3">
-        <v>60000</v>
+        <v>95000</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="10">
-        <v>230000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -7236,315 +7383,313 @@
         <v>140</v>
       </c>
       <c r="E124" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="F124" s="3"/>
-      <c r="G124" s="10"/>
+      <c r="G124" s="10">
+        <v>240000</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>273</v>
+        <v>622</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="E125" s="3">
-        <v>65000</v>
+        <v>53000</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="10">
-        <v>240000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>623</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="E126" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F126" s="3"/>
+        <v>75000</v>
+      </c>
+      <c r="F126" s="3">
+        <v>145000</v>
+      </c>
       <c r="G126" s="9">
-        <v>210000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>277</v>
+        <v>714</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>715</v>
       </c>
       <c r="E127" s="3">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="10">
-        <v>215000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="3">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="10">
-        <v>270000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="E129" s="3">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="10">
-        <v>270000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E130" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="E130" s="3">
+        <v>53000</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="10">
-        <v>500000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E131" s="3">
-        <v>65000</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E131" s="3"/>
       <c r="F131" s="3">
-        <v>125000</v>
-      </c>
-      <c r="G131" s="10">
-        <v>235000</v>
-      </c>
+        <v>130000</v>
+      </c>
+      <c r="G131" s="10"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="10">
-        <v>500000</v>
-      </c>
+      <c r="F132" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G132" s="10"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>290</v>
+        <v>651</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="E133" s="3">
-        <v>85000</v>
+        <v>55000</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="10">
-        <v>320000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="E134" s="3">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="10">
-        <v>250000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="E135" s="3">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="10">
-        <v>380000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E136" s="3">
-        <v>60000</v>
-      </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="10">
-        <v>230000</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3">
+        <v>180000</v>
+      </c>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="E137" s="3">
-        <v>170000</v>
+        <v>75000</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="10">
-        <v>650000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="E138" s="3">
-        <v>67000</v>
+        <v>70000</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="10">
-        <v>260000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>630</v>
+        <v>259</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E139" s="3">
         <v>75000</v>
@@ -7556,1295 +7701,1291 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="E140" s="3">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="10">
-        <v>380000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E141" s="3">
-        <v>60000</v>
-      </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="10">
-        <v>230000</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3">
+        <v>250000</v>
+      </c>
+      <c r="G141" s="10"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E142" s="3">
-        <v>80000</v>
+        <v>105000</v>
       </c>
       <c r="F142" s="3"/>
-      <c r="G142" s="10">
-        <v>300000</v>
-      </c>
+      <c r="G142" s="10"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="E143" s="3">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="10">
-        <v>270000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>631</v>
+        <v>269</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="E144" s="3">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="10">
-        <v>290000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="E145" s="3">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="F145" s="3"/>
-      <c r="G145" s="10">
-        <v>350000</v>
-      </c>
+      <c r="G145" s="10"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="E146" s="3">
-        <v>120000</v>
+        <v>65000</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="10">
-        <v>450000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="E147" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F147" s="3">
-        <v>175000</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="F147" s="3"/>
       <c r="G147" s="10">
-        <v>340000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>320</v>
+        <v>716</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>321</v>
+        <v>717</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>68</v>
+        <v>374</v>
       </c>
       <c r="E148" s="3">
-        <v>63000</v>
+        <v>55000</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="10">
-        <v>240000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>632</v>
+        <v>277</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>404</v>
+        <v>140</v>
       </c>
       <c r="E149" s="3">
-        <v>85000</v>
+        <v>55000</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="10">
-        <v>330000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>324</v>
+        <v>151</v>
       </c>
       <c r="E150" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="10">
-        <v>290000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="E151" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G151" s="10"/>
+        <v>70000</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="10">
+        <v>270000</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E152" s="3">
-        <v>72000</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="10">
-        <v>270000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>633</v>
+        <v>285</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>634</v>
+        <v>286</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="E153" s="3">
         <v>65000</v>
       </c>
-      <c r="F153" s="3"/>
+      <c r="F153" s="3">
+        <v>125000</v>
+      </c>
       <c r="G153" s="10">
-        <v>250000</v>
+        <v>235000</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E154" s="3">
-        <v>85000</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="10">
-        <v>320000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>332</v>
+        <v>718</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="E155" s="3">
-        <v>78000</v>
-      </c>
-      <c r="F155" s="3">
-        <v>150000</v>
-      </c>
+        <v>65000</v>
+      </c>
+      <c r="F155" s="3"/>
       <c r="G155" s="10">
-        <v>290000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="E156" s="3">
         <v>85000</v>
       </c>
       <c r="F156" s="3"/>
-      <c r="G156" s="9"/>
+      <c r="G156" s="9">
+        <v>320000</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="E157" s="3">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="10">
-        <v>250000</v>
+        <v>275000</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="E158" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="10">
-        <v>290000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="E159" s="3">
-        <v>83000</v>
+        <v>60000</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="10">
-        <v>320000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="E160" s="3">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="10">
-        <v>500000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>349</v>
+        <v>140</v>
       </c>
       <c r="E161" s="3">
-        <v>95000</v>
+        <v>67000</v>
       </c>
       <c r="F161" s="3"/>
-      <c r="G161" s="10" t="s">
-        <v>350</v>
+      <c r="G161" s="10">
+        <v>260000</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>351</v>
+        <v>624</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>352</v>
+        <v>68</v>
       </c>
       <c r="E162" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="G162" s="10" t="s">
-        <v>350</v>
+      <c r="G162" s="10">
+        <v>290000</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3">
-        <v>210000</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E163" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F163" s="3"/>
       <c r="G163" s="10">
-        <v>400000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="E164" s="3">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="10">
-        <v>380000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="E165" s="3">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="10">
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="E166" s="3">
-        <v>68000</v>
+        <v>70000</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="10">
-        <v>260000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>363</v>
+        <v>625</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="E167" s="3">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="9">
-        <v>750000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="E168" s="3">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="9">
-        <v>400000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>369</v>
+        <v>252</v>
       </c>
       <c r="E169" s="3">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="10">
-        <v>380000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="E170" s="3">
-        <v>110000</v>
-      </c>
-      <c r="F170" s="3"/>
+        <v>90000</v>
+      </c>
+      <c r="F170" s="3">
+        <v>175000</v>
+      </c>
       <c r="G170" s="10">
-        <v>420000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="E171" s="3">
-        <v>60000</v>
+        <v>63000</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="10">
-        <v>230000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>375</v>
+        <v>626</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="E172" s="3">
-        <v>65000</v>
+        <v>85000</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="10">
-        <v>250000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="E173" s="3">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="10">
-        <v>270000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="E174" s="3">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="F174" s="3"/>
-      <c r="G174" s="10">
-        <v>360000</v>
-      </c>
+      <c r="G174" s="10"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="E175" s="3">
-        <v>140000</v>
-      </c>
-      <c r="F175" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="10">
         <v>270000</v>
-      </c>
-      <c r="G175" s="10">
-        <v>520000</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E176" s="3">
-        <v>85000</v>
+        <v>65000</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="10">
-        <v>320000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="E177" s="3">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="10">
-        <v>450000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>386</v>
+        <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="E178" s="3">
-        <v>200000</v>
-      </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="10"/>
+        <v>78000</v>
+      </c>
+      <c r="F178" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G178" s="10">
+        <v>290000</v>
+      </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>381</v>
+        <v>172</v>
       </c>
       <c r="E179" s="3">
-        <v>130000</v>
+        <v>85000</v>
       </c>
       <c r="F179" s="3"/>
-      <c r="G179" s="10">
-        <v>500000</v>
-      </c>
+      <c r="G179" s="10"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="E180" s="3">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="10">
-        <v>270000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>2</v>
+        <v>690</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>720</v>
       </c>
       <c r="E181" s="3">
-        <v>78000</v>
-      </c>
-      <c r="F181" s="3">
-        <v>150000</v>
-      </c>
+        <v>75000</v>
+      </c>
+      <c r="F181" s="3"/>
       <c r="G181" s="10">
-        <v>300000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E182" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="E182" s="3">
+        <v>75000</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="10">
-        <v>650000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E183" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="E183" s="3">
+        <v>83000</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="10">
-        <v>450000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="E184" s="3">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="10">
-        <v>300000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>137</v>
+        <v>348</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="E185" s="3">
-        <v>120000</v>
+        <v>95000</v>
       </c>
       <c r="F185" s="3"/>
-      <c r="G185" s="10">
-        <v>450000</v>
+      <c r="G185" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="E186" s="3">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="F186" s="3"/>
-      <c r="G186" s="10">
-        <v>400000</v>
+      <c r="G186" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E187" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F187" s="3"/>
+        <v>355</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3">
+        <v>210000</v>
+      </c>
       <c r="G187" s="10">
-        <v>340000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="E188" s="3">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="10">
-        <v>300000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="E189" s="3">
-        <v>85000</v>
-      </c>
-      <c r="F189" s="3">
-        <v>165000</v>
-      </c>
+        <v>130000</v>
+      </c>
+      <c r="F189" s="3"/>
       <c r="G189" s="10">
-        <v>320000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3">
+        <v>140</v>
+      </c>
+      <c r="E190" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="10">
         <v>260000</v>
-      </c>
-      <c r="G190" s="10">
-        <v>500000</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>411</v>
+        <v>721</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>412</v>
+        <v>722</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>168</v>
+        <v>690</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>413</v>
+        <v>723</v>
       </c>
       <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
+      <c r="F191" s="3">
+        <v>160000</v>
+      </c>
       <c r="G191" s="10">
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="E192" s="3">
-        <v>90000</v>
+        <v>200000</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="10">
-        <v>340000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E193" s="3">
-        <v>85000</v>
+        <v>110000</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="10">
-        <v>320000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>635</v>
+        <v>368</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>636</v>
+        <v>367</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="E194" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="10">
-        <v>290000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="E195" s="3">
-        <v>75000</v>
+        <v>110000</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="10">
-        <v>290000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="E196" s="3">
-        <v>85000</v>
+        <v>60000</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="10">
-        <v>330000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>423</v>
+        <v>140</v>
       </c>
       <c r="E197" s="3">
-        <v>85000</v>
+        <v>65000</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="10">
-        <v>330000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E198" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E198" s="3">
+        <v>70000</v>
+      </c>
       <c r="F198" s="3"/>
       <c r="G198" s="10">
-        <v>480000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>662</v>
+        <v>378</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3">
-        <v>240000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E199" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F199" s="3"/>
       <c r="G199" s="10">
-        <v>450000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>663</v>
+        <v>380</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>98</v>
+        <v>381</v>
       </c>
       <c r="E200" s="3">
-        <v>95000</v>
+        <v>140000</v>
       </c>
       <c r="F200" s="3">
-        <v>185000</v>
+        <v>270000</v>
       </c>
       <c r="G200" s="10">
-        <v>360000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>425</v>
+        <v>653</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>665</v>
+        <v>36</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>666</v>
+        <v>98</v>
       </c>
       <c r="E201" s="3">
         <v>85000</v>
@@ -8856,245 +8997,237 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="E202" s="3">
-        <v>75000</v>
+        <v>120000</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="10">
-        <v>290000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>429</v>
+        <v>724</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>98</v>
+        <v>723</v>
       </c>
       <c r="E203" s="3">
-        <v>85000</v>
+        <v>70000</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="10">
-        <v>330000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>198</v>
+        <v>386</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="E204" s="3">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="F204" s="3"/>
-      <c r="G204" s="10">
-        <v>260000</v>
-      </c>
+      <c r="G204" s="10"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3">
-        <v>250000</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="E205" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F205" s="3"/>
       <c r="G205" s="10">
-        <v>480000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>437</v>
+        <v>2</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E206" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E206" s="3">
+        <v>80000</v>
+      </c>
       <c r="F206" s="3"/>
       <c r="G206" s="10">
-        <v>450000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E207" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F207" s="3"/>
+        <v>85000</v>
+      </c>
+      <c r="F207" s="3">
+        <v>165000</v>
+      </c>
       <c r="G207" s="10">
-        <v>350000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>2</v>
+        <v>690</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>423</v>
+        <v>726</v>
       </c>
       <c r="E208" s="3">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="10">
-        <v>400000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>669</v>
+        <v>392</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>670</v>
+        <v>391</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E209" s="3">
-        <v>95000</v>
-      </c>
-      <c r="F209" s="3">
-        <v>185000</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
       <c r="G209" s="10">
-        <v>350000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E210" s="3">
-        <v>75000</v>
-      </c>
-      <c r="F210" s="3">
-        <v>140000</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
       <c r="G210" s="10">
-        <v>270000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>637</v>
+        <v>396</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>638</v>
+        <v>397</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E211" s="3">
         <v>80000</v>
       </c>
-      <c r="F211" s="3">
-        <v>150000</v>
-      </c>
+      <c r="F211" s="3"/>
       <c r="G211" s="10">
         <v>300000</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="E212" s="3">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="10">
-        <v>300000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>671</v>
+        <v>400</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>672</v>
+        <v>401</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -9103,122 +9236,124 @@
         <v>292</v>
       </c>
       <c r="E213" s="3">
-        <v>90000</v>
+        <v>105000</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="10">
-        <v>350000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E214" s="3">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="10">
-        <v>420000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>673</v>
+        <v>405</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>674</v>
+        <v>403</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="E215" s="3">
         <v>80000</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="10">
-        <v>310000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E216" s="3">
         <v>85000</v>
       </c>
-      <c r="F216" s="3"/>
+      <c r="F216" s="3">
+        <v>165000</v>
+      </c>
       <c r="G216" s="10">
         <v>320000</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
+      <c r="F217" s="3">
+        <v>260000</v>
+      </c>
       <c r="G217" s="10">
-        <v>750000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E218" s="3">
-        <v>100000</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="10">
-        <v>420000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2</v>
@@ -9227,307 +9362,315 @@
         <v>415</v>
       </c>
       <c r="E219" s="3">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="10">
-        <v>500000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E220" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="E220" s="3">
+        <v>85000</v>
+      </c>
       <c r="F220" s="3"/>
       <c r="G220" s="10">
-        <v>700000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>454</v>
+        <v>629</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>455</v>
+        <v>630</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>68</v>
+        <v>406</v>
       </c>
       <c r="E221" s="3">
-        <v>65000</v>
+        <v>75000</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="10">
-        <v>250000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="E222" s="3">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="10">
-        <v>450000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E223" s="3">
-        <v>80000</v>
+        <v>85000</v>
       </c>
       <c r="F223" s="3"/>
-      <c r="G223" s="10"/>
+      <c r="G223" s="10">
+        <v>330000</v>
+      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="E224" s="3">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="10">
-        <v>340000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="E225" s="3"/>
-      <c r="F225" s="3">
-        <v>280000</v>
-      </c>
+      <c r="F225" s="3"/>
       <c r="G225" s="10">
-        <v>550000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>463</v>
+        <v>655</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D226" s="2"/>
       <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
+      <c r="F226" s="3">
+        <v>220000</v>
+      </c>
       <c r="G226" s="10">
-        <v>550000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>464</v>
+        <v>656</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="E227" s="3">
-        <v>85000</v>
-      </c>
-      <c r="F227" s="3"/>
+        <v>95000</v>
+      </c>
+      <c r="F227" s="3">
+        <v>185000</v>
+      </c>
       <c r="G227" s="10">
-        <v>340000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>466</v>
+        <v>657</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>2</v>
+        <v>658</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>423</v>
+        <v>659</v>
       </c>
       <c r="E228" s="3">
-        <v>90000</v>
+        <v>85000</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="10">
-        <v>350000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>333</v>
+        <v>428</v>
       </c>
       <c r="E229" s="3">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="F229" s="3"/>
-      <c r="G229" s="10"/>
+      <c r="G229" s="10">
+        <v>290000</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>177</v>
+        <v>430</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E230" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="E230" s="3">
+        <v>85000</v>
+      </c>
       <c r="F230" s="3"/>
       <c r="G230" s="10">
-        <v>550000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="E231" s="3">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="F231" s="3"/>
-      <c r="G231" s="9"/>
+      <c r="G231" s="9">
+        <v>260000</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E232" s="3">
-        <v>130000</v>
-      </c>
-      <c r="F232" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3">
+        <v>250000</v>
+      </c>
       <c r="G232" s="10">
-        <v>500000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E233" s="3">
-        <v>100000</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="9">
-        <v>390000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>423</v>
+        <v>134</v>
       </c>
       <c r="E234" s="3">
         <v>90000</v>
@@ -9539,69 +9682,77 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>475</v>
+        <v>661</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="E235" s="3">
-        <v>90000</v>
+        <v>105000</v>
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="10">
-        <v>350000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>477</v>
+        <v>662</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>476</v>
+        <v>663</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E236" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E236" s="3">
+        <v>95000</v>
+      </c>
       <c r="F236" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G236" s="10"/>
+        <v>185000</v>
+      </c>
+      <c r="G236" s="10">
+        <v>350000</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="E237" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F237" s="3">
         <v>140000</v>
       </c>
-      <c r="F237" s="3"/>
-      <c r="G237" s="9"/>
+      <c r="G237" s="9">
+        <v>270000</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
@@ -9621,10 +9772,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -9642,237 +9793,235 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="E240" s="3">
-        <v>125000</v>
+        <v>90000</v>
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="10">
-        <v>480000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="E241" s="3">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="10">
-        <v>350000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>485</v>
+        <v>666</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>486</v>
+        <v>667</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="E242" s="3">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="10">
-        <v>540000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="E243" s="3">
         <v>85000</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="10">
-        <v>330000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E244" s="3">
-        <v>140000</v>
-      </c>
-      <c r="F244" s="3">
-        <v>270000</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
       <c r="G244" s="10">
-        <v>520000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="E245" s="3">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="10">
-        <v>350000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E246" s="3"/>
+        <v>415</v>
+      </c>
+      <c r="E246" s="3">
+        <v>130000</v>
+      </c>
       <c r="F246" s="3"/>
       <c r="G246" s="10">
-        <v>750000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="10">
-        <v>750000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>678</v>
+        <v>454</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>679</v>
+        <v>455</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="E248" s="3">
-        <v>105000</v>
+        <v>65000</v>
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="10">
-        <v>400000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3">
-        <v>240000</v>
-      </c>
-      <c r="G249" s="10"/>
+        <v>457</v>
+      </c>
+      <c r="E249" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F249" s="3"/>
+      <c r="G249" s="10">
+        <v>450000</v>
+      </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E250" s="3">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="F250" s="3"/>
-      <c r="G250" s="9">
-        <v>450000</v>
-      </c>
+      <c r="G250" s="9"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>2</v>
@@ -9885,681 +10034,677 @@
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="10">
-        <v>350000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E252" s="3">
-        <v>105000</v>
-      </c>
-      <c r="F252" s="3"/>
+        <v>421</v>
+      </c>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3">
+        <v>280000</v>
+      </c>
       <c r="G252" s="10">
-        <v>400000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E253" s="3">
-        <v>90000</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="10">
-        <v>350000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="E254" s="3">
-        <v>100000</v>
+        <v>85000</v>
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="10">
-        <v>390000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>510</v>
+        <v>2</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="E255" s="3">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="10">
-        <v>280000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="E256" s="3">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="10"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E257" s="3">
-        <v>90000</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="9">
-        <v>350000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>515</v>
+        <v>727</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>98</v>
+        <v>728</v>
       </c>
       <c r="E258" s="3">
-        <v>125000</v>
-      </c>
-      <c r="F258" s="3">
-        <v>245000</v>
-      </c>
+        <v>145000</v>
+      </c>
+      <c r="F258" s="3"/>
       <c r="G258" s="10">
-        <v>480000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>516</v>
+        <v>729</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>513</v>
+        <v>730</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3">
-        <v>250000</v>
-      </c>
-      <c r="G259" s="10"/>
+        <v>333</v>
+      </c>
+      <c r="E259" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="G259" s="10">
+        <v>390000</v>
+      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>518</v>
+        <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="E260" s="3">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="F260" s="3"/>
-      <c r="G260" s="10">
-        <v>500000</v>
-      </c>
+      <c r="G260" s="10"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>641</v>
+        <v>473</v>
       </c>
       <c r="E261" s="3">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="10">
-        <v>480000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>415</v>
+        <v>98</v>
       </c>
       <c r="E262" s="3">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="10">
-        <v>400000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>521</v>
+        <v>668</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E263" s="3"/>
+        <v>423</v>
+      </c>
+      <c r="E263" s="3">
+        <v>90000</v>
+      </c>
       <c r="F263" s="3"/>
       <c r="G263" s="10">
-        <v>750000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>292</v>
+        <v>98</v>
       </c>
       <c r="E264" s="3">
-        <v>115000</v>
+        <v>90000</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="10">
-        <v>450000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>524</v>
+        <v>731</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>523</v>
+        <v>732</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E265" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F265" s="3">
+        <v>195000</v>
+      </c>
       <c r="G265" s="10">
-        <v>750000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>526</v>
+        <v>733</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
       <c r="E266" s="3">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="F266" s="3"/>
-      <c r="G266" s="10">
-        <v>380000</v>
-      </c>
+      <c r="G266" s="10"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>527</v>
+        <v>734</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>528</v>
+        <v>735</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E267" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E267" s="3">
+        <v>100000</v>
+      </c>
       <c r="F267" s="3"/>
       <c r="G267" s="10">
-        <v>400000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>529</v>
+        <v>633</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>530</v>
+        <v>634</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="E268" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F268" s="3"/>
+        <v>80000</v>
+      </c>
+      <c r="F268" s="3">
+        <v>150000</v>
+      </c>
       <c r="G268" s="10">
-        <v>380000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>533</v>
+        <v>140</v>
       </c>
       <c r="E269" s="3">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="10">
-        <v>350000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>534</v>
+        <v>669</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="E270" s="3">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="10">
-        <v>410000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>681</v>
+        <v>481</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>386</v>
+        <v>2</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E271" s="2">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="10">
-        <v>600000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>682</v>
+        <v>482</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>683</v>
+        <v>483</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
       <c r="E272" s="3">
-        <v>145000</v>
+        <v>140000</v>
       </c>
       <c r="F272" s="3"/>
       <c r="G272" s="10">
-        <v>550000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E273" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E273" s="3">
+        <v>85000</v>
+      </c>
       <c r="F273" s="3"/>
       <c r="G273" s="10">
-        <v>1000000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="E274" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F274" s="3"/>
+        <v>140000</v>
+      </c>
+      <c r="F274" s="3">
+        <v>270000</v>
+      </c>
       <c r="G274" s="10">
-        <v>470000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>541</v>
+        <v>140</v>
       </c>
       <c r="E275" s="3">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="10">
-        <v>580000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E276" s="3">
-        <v>200000</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="10">
-        <v>700000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E277" s="3">
-        <v>200000</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="10">
-        <v>700000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>545</v>
+        <v>671</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>546</v>
+        <v>672</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="E278" s="3">
-        <v>120000</v>
+        <v>105000</v>
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="10">
-        <v>470000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E279" s="3">
-        <v>130000</v>
-      </c>
-      <c r="F279" s="3"/>
-      <c r="G279" s="10">
-        <v>500000</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3">
+        <v>240000</v>
+      </c>
+      <c r="G279" s="10"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>549</v>
+        <v>329</v>
       </c>
       <c r="E280" s="3">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="F280" s="3"/>
       <c r="G280" s="10">
-        <v>800000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="E281" s="3">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="10">
-        <v>220000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="E282" s="3">
-        <v>130000</v>
-      </c>
-      <c r="F282" s="3">
-        <v>255000</v>
-      </c>
+        <v>105000</v>
+      </c>
+      <c r="F282" s="3"/>
       <c r="G282" s="10">
-        <v>500000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>386</v>
+        <v>14</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="E283" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F283" s="3">
-        <v>230000</v>
-      </c>
+        <v>90000</v>
+      </c>
+      <c r="F283" s="3"/>
       <c r="G283" s="10">
-        <v>400000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>36</v>
@@ -10568,82 +10713,80 @@
         <v>98</v>
       </c>
       <c r="E284" s="3">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="10">
-        <v>430000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>137</v>
+        <v>507</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="E285" s="3">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="10">
-        <v>540000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="E286" s="3">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="F286" s="3"/>
-      <c r="G286" s="10">
-        <v>500000</v>
-      </c>
+      <c r="G286" s="10"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>561</v>
+        <v>503</v>
       </c>
       <c r="E287" s="3">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="10">
-        <v>430000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>36</v>
@@ -10654,147 +10797,149 @@
       <c r="E288" s="3">
         <v>125000</v>
       </c>
-      <c r="F288" s="3"/>
+      <c r="F288" s="3">
+        <v>245000</v>
+      </c>
       <c r="G288" s="10">
         <v>480000</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>258</v>
+        <v>473</v>
       </c>
       <c r="E289" s="3"/>
       <c r="F289" s="3">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="G289" s="9"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>2</v>
+        <v>515</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="E290" s="3">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="10">
-        <v>460000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3">
-        <v>450000</v>
-      </c>
-      <c r="G291" s="9"/>
+        <v>635</v>
+      </c>
+      <c r="E291" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F291" s="3"/>
+      <c r="G291" s="9">
+        <v>480000</v>
+      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="E292" s="3">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="10">
-        <v>500000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>571</v>
+        <v>518</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E293" s="3">
-        <v>150000</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="10">
-        <v>580000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>573</v>
+        <v>519</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>423</v>
+        <v>292</v>
       </c>
       <c r="E294" s="3">
-        <v>150000</v>
+        <v>115000</v>
       </c>
       <c r="F294" s="3"/>
-      <c r="G294" s="10"/>
+      <c r="G294" s="10">
+        <v>450000</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>574</v>
+        <v>521</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E295" s="3">
-        <v>190000</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="10">
         <v>750000</v>
@@ -10802,172 +10947,174 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="E296" s="3">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="F296" s="3"/>
       <c r="G296" s="10">
-        <v>600000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>578</v>
+        <v>524</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E297" s="3">
-        <v>160000</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="G297" s="10">
-        <v>600000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>580</v>
+        <v>526</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>581</v>
+        <v>527</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="E298" s="3">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="10">
-        <v>600000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>582</v>
+        <v>528</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>583</v>
+        <v>529</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>98</v>
+        <v>530</v>
       </c>
       <c r="E299" s="3">
-        <v>160000</v>
+        <v>90000</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="10">
-        <v>600000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>586</v>
+        <v>98</v>
       </c>
       <c r="E300" s="3">
-        <v>135000</v>
+        <v>105000</v>
       </c>
       <c r="F300" s="3"/>
-      <c r="G300" s="10"/>
+      <c r="G300" s="10">
+        <v>410000</v>
+      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D301" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E301" s="3">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="F301" s="3"/>
-      <c r="G301" s="10"/>
+      <c r="G301" s="10">
+        <v>600000</v>
+      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E302" s="3">
-        <v>140000</v>
+        <v>145000</v>
       </c>
       <c r="F302" s="3"/>
-      <c r="G302" s="9"/>
+      <c r="G302" s="9">
+        <v>550000</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>591</v>
+        <v>533</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E303" s="3">
-        <v>190000</v>
-      </c>
-      <c r="F303" s="3">
-        <v>370000</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
       <c r="G303" s="10">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>36</v>
@@ -10976,176 +11123,758 @@
         <v>98</v>
       </c>
       <c r="E304" s="3">
-        <v>115000</v>
-      </c>
-      <c r="F304" s="3">
-        <v>225000</v>
-      </c>
+        <v>120000</v>
+      </c>
+      <c r="F304" s="3"/>
       <c r="G304" s="10">
-        <v>440000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>595</v>
+        <v>536</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>596</v>
+        <v>36</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="E305" s="3">
-        <v>38000</v>
+        <v>150000</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="10">
-        <v>150000</v>
+        <v>580000</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>598</v>
+        <v>539</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>600</v>
+        <v>198</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="E306" s="3">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="10">
-        <v>190000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="E307" s="3">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="10">
-        <v>195000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>597</v>
+        <v>98</v>
       </c>
       <c r="E308" s="3">
-        <v>55000</v>
+        <v>120000</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="10">
-        <v>215000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>607</v>
+        <v>315</v>
       </c>
       <c r="E309" s="3">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="10">
-        <v>310000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>610</v>
+        <v>2</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>611</v>
+        <v>423</v>
       </c>
       <c r="E310" s="3">
-        <v>95000</v>
+        <v>110000</v>
       </c>
       <c r="F310" s="3"/>
-      <c r="G310" s="10"/>
+      <c r="G310" s="10">
+        <v>220000</v>
+      </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>686</v>
+        <v>546</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>613</v>
+        <v>547</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>627</v>
+        <v>36</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>687</v>
+        <v>98</v>
       </c>
       <c r="E311" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F311" s="3"/>
-      <c r="G311" s="9"/>
+        <v>130000</v>
+      </c>
+      <c r="F311" s="3">
+        <v>255000</v>
+      </c>
+      <c r="G311" s="9">
+        <v>500000</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>612</v>
+        <v>548</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>613</v>
+        <v>549</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>610</v>
+        <v>386</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="E312" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F312" s="3">
+        <v>230000</v>
+      </c>
+      <c r="G312" s="10">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>551</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E313" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F313" s="3"/>
+      <c r="G313" s="10">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>552</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E314" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F314" s="3"/>
+      <c r="G314" s="10">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>554</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E315" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F315" s="3"/>
+      <c r="G315" s="10">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>555</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E316" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F316" s="3"/>
+      <c r="G316" s="10">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>557</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E317" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F317" s="3"/>
+      <c r="G317" s="10">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>559</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G318" s="10"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>561</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E319" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F319" s="3"/>
+      <c r="G319" s="10">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>564</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E320" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F320" s="3"/>
+      <c r="G320" s="10">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>565</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E321" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F321" s="3"/>
+      <c r="G321" s="10">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>567</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E322" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F322" s="3"/>
+      <c r="G322" s="10"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>568</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E323" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F323" s="3"/>
+      <c r="G323" s="10">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>570</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E324" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F324" s="3"/>
+      <c r="G324" s="10">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>572</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E325" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F325" s="3"/>
+      <c r="G325" s="10">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>574</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E326" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F326" s="3"/>
+      <c r="G326" s="10">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>576</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E327" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F327" s="3"/>
+      <c r="G327" s="10">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>578</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E328" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F328" s="3"/>
+      <c r="G328" s="10"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>677</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D329" s="2"/>
+      <c r="E329" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F329" s="3"/>
+      <c r="G329" s="10"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>582</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E330" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F330" s="3"/>
+      <c r="G330" s="10"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>584</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E331" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F331" s="3">
+        <v>370000</v>
+      </c>
+      <c r="G331" s="10">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>586</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E332" s="3">
+        <v>115000</v>
+      </c>
+      <c r="F332" s="3">
+        <v>225000</v>
+      </c>
+      <c r="G332" s="10">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>588</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E333" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F333" s="3"/>
+      <c r="G333" s="10">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>592</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E334" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F334" s="3"/>
+      <c r="G334" s="10">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>595</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E335" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F335" s="3"/>
+      <c r="G335" s="10">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>598</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E336" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F336" s="3"/>
+      <c r="G336" s="10">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>599</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E337" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F337" s="3"/>
+      <c r="G337" s="10">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>602</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E338" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F338" s="3"/>
+      <c r="G338" s="10"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>679</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E339" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F339" s="3"/>
+      <c r="G339" s="10"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>606</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E340" s="3">
         <v>105000</v>
       </c>
-      <c r="F312" s="3"/>
-      <c r="G312" s="10">
+      <c r="F340" s="3"/>
+      <c r="G340" s="10">
         <v>400000</v>
       </c>
     </row>
